--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\Excel templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{87BB6D79-443E-44F4-8319-490E8C7C1855}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4D106A55-5E71-452A-A4F7-FC92D365D71D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="27360" windowHeight="15240" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,7 +247,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/20/20</t>
+    <t>Created 02/21/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1699,7 +1699,7 @@
   </sheetPr>
   <dimension ref="A2:P61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="0" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0" tabSelected="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6357,11 +6357,6 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -6371,6 +6366,11 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -7604,6 +7604,14 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="F39:U39"/>
     <mergeCell ref="F31:U31"/>
     <mergeCell ref="H15:N15"/>
@@ -7612,14 +7620,6 @@
     <mergeCell ref="F35:U35"/>
     <mergeCell ref="F37:U37"/>
     <mergeCell ref="O15:U15"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
     <mergeCell ref="I24:N24"/>
     <mergeCell ref="O24:U24"/>
   </mergeCells>
@@ -7711,15 +7711,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000192CE90DA120240A67EE82BE1FBFF43" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623d129459d6fae29ac2c5d491c3782f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0e2beb7e-37df-4602-aab8-4f6673c75e9a" xmlns:ns4="eaec1813-26bf-4c98-9021-907af21e1945" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfd2e6b22ac1ad737273b5b960116aad" ns3:_="" ns4:_="">
     <xsd:import namespace="0e2beb7e-37df-4602-aab8-4f6673c75e9a"/>
@@ -7942,6 +7933,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -7949,14 +7949,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB68F43B-E0EF-42BE-BAC3-92E4E861A7D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53520415-44BC-4FFA-B7D1-C1B985B55107}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7971,6 +7963,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB68F43B-E0EF-42BE-BAC3-92E4E861A7D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\Excel templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4D106A55-5E71-452A-A4F7-FC92D365D71D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{95FF1907-A241-4455-BD7A-9BC1FC65151D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="27360" windowHeight="15240" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Broadcast Proposal Gorilla Glue Q4 '19 - Q1 '20</t>
   </si>
@@ -211,9 +211,6 @@
     <t>Distribution</t>
   </si>
   <si>
-    <t>Imp.</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -247,7 +244,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/21/20</t>
+    <t>Created 02/24/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1937,7 +1934,7 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="B11" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C11" s="101">
         <v>0</v>
@@ -2031,7 +2028,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="61">
         <v>0</v>
@@ -2078,7 +2075,7 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="B14" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="119"/>
       <c r="D14" s="120"/>
@@ -2097,7 +2094,7 @@
     </row>
     <row r="16">
       <c r="B16" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="127" t="s">
         <v>55</v>
@@ -2261,7 +2258,7 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="B20" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C20" s="101">
         <v>0</v>
@@ -2355,7 +2352,7 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="B22" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="61">
         <v>0</v>
@@ -2402,7 +2399,7 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="B23" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="119"/>
       <c r="D23" s="120"/>
@@ -2421,7 +2418,7 @@
     </row>
     <row r="25">
       <c r="B25" s="52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="127" t="s">
         <v>55</v>
@@ -2585,7 +2582,7 @@
     </row>
     <row r="29" ht="24" customHeight="1">
       <c r="B29" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C29" s="101">
         <v>0</v>
@@ -2679,7 +2676,7 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="B31" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="61">
         <v>0</v>
@@ -2726,7 +2723,7 @@
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="B32" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="119"/>
       <c r="D32" s="120"/>
@@ -2745,7 +2742,7 @@
     </row>
     <row r="34">
       <c r="B34" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="127" t="s">
         <v>55</v>
@@ -2909,7 +2906,7 @@
     </row>
     <row r="38" ht="24" customHeight="1">
       <c r="B38" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C38" s="101">
         <v>0</v>
@@ -3003,7 +3000,7 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="B40" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="61">
         <v>0</v>
@@ -3050,7 +3047,7 @@
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="B41" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="119"/>
       <c r="D41" s="120"/>
@@ -3069,7 +3066,7 @@
     </row>
     <row r="43">
       <c r="B43" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="127" t="s">
         <v>55</v>
@@ -3233,7 +3230,7 @@
     </row>
     <row r="47" ht="24" customHeight="1">
       <c r="B47" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C47" s="101">
         <v>0</v>
@@ -3327,7 +3324,7 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="B49" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="61">
         <v>0</v>
@@ -3374,7 +3371,7 @@
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="B50" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="119"/>
       <c r="D50" s="120"/>
@@ -3393,7 +3390,7 @@
     </row>
     <row r="52">
       <c r="B52" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="127" t="s">
         <v>55</v>
@@ -3557,7 +3554,7 @@
     </row>
     <row r="56" ht="24" customHeight="1">
       <c r="B56" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C56" s="101">
         <v>0</v>
@@ -3651,7 +3648,7 @@
     </row>
     <row r="58" ht="24" customHeight="1">
       <c r="B58" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="61">
         <v>0</v>
@@ -3698,7 +3695,7 @@
     </row>
     <row r="59" ht="30" customHeight="1">
       <c r="B59" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="119"/>
       <c r="D59" s="120"/>
@@ -3855,7 +3852,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>16</v>
@@ -3888,7 +3885,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="B7" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -4149,7 +4146,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -6412,10 +6409,10 @@
     <row r="2" ht="24" customHeight="1">
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6450,25 +6447,25 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="5" customFormat="1">
       <c r="C5" s="123" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="123"/>
       <c r="E5" s="123" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="123"/>
       <c r="G5" s="123"/>
       <c r="H5" s="70"/>
       <c r="I5" s="123" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J5" s="123"/>
       <c r="K5" s="123" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L5" s="123"/>
       <c r="M5" s="123" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N5" s="123"/>
       <c r="O5" s="65" t="s">
@@ -6500,7 +6497,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="9"/>
@@ -6516,7 +6513,7 @@
       <c r="M7" s="128"/>
       <c r="N7" s="129"/>
       <c r="O7" s="127" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P7" s="128"/>
       <c r="Q7" s="128"/>
@@ -6527,14 +6524,14 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>23</v>
@@ -6588,14 +6585,14 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="E9" s="74">
         <v>0</v>
@@ -6649,14 +6646,14 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="74">
         <v>0</v>
@@ -6710,14 +6707,14 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="74">
         <v>0</v>
@@ -6773,7 +6770,7 @@
       <c r="B12" s="27"/>
       <c r="C12" s="38"/>
       <c r="D12" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="50">
         <v>0</v>
@@ -6831,13 +6828,13 @@
     <row r="14" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="B14" s="57"/>
       <c r="H14" s="81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="B15" s="57"/>
       <c r="H15" s="127" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" s="128"/>
       <c r="J15" s="128"/>
@@ -6900,7 +6897,7 @@
     </row>
     <row r="17" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="A17" s="71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="57"/>
       <c r="H17" s="115">
@@ -6934,7 +6931,7 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="57"/>
       <c r="H18" s="115">
@@ -6968,7 +6965,7 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="57"/>
       <c r="H19" s="115">
@@ -7088,7 +7085,7 @@
       <c r="M24" s="128"/>
       <c r="N24" s="129"/>
       <c r="O24" s="127" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P24" s="128"/>
       <c r="Q24" s="128"/>
@@ -7099,14 +7096,14 @@
     </row>
     <row r="25" ht="24" customHeight="1">
       <c r="A25" s="69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="39" t="s">
         <v>23</v>
@@ -7160,14 +7157,14 @@
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="A26" s="69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="E26" s="74">
         <v>0</v>
@@ -7221,14 +7218,14 @@
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="A27" s="69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="74">
         <v>0</v>
@@ -7282,14 +7279,14 @@
     </row>
     <row r="28" ht="24" customHeight="1">
       <c r="A28" s="69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="74">
         <v>0</v>
@@ -7345,7 +7342,7 @@
       <c r="B29" s="27"/>
       <c r="C29" s="38"/>
       <c r="D29" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="50">
         <v>0</v>
@@ -7405,7 +7402,7 @@
       <c r="D31" s="54"/>
       <c r="E31" s="72"/>
       <c r="F31" s="133" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G31" s="133"/>
       <c r="H31" s="133"/>
@@ -7451,7 +7448,7 @@
       </c>
       <c r="D33" s="54"/>
       <c r="F33" s="133" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="133"/>
       <c r="H33" s="133"/>
@@ -7584,7 +7581,7 @@
       </c>
       <c r="D39" s="54"/>
       <c r="F39" s="124" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" s="124"/>
       <c r="H39" s="124"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
@@ -196,7 +196,7 @@
     <t>Posting</t>
   </si>
   <si>
-    <t xml:space="preserve">4Q '19 DAY :30s </t>
+    <t>4Q '19 DAY :30s</t>
   </si>
   <si>
     <t>October</t>
@@ -220,13 +220,13 @@
     <t>4Q '19 DAY Total</t>
   </si>
   <si>
-    <t xml:space="preserve">4Q '19 EMN :30s </t>
+    <t>4Q '19 EMN :30s</t>
   </si>
   <si>
     <t>4Q '19 EMN Total</t>
   </si>
   <si>
-    <t xml:space="preserve">4Q '19 PT :30s </t>
+    <t>4Q '19 PT :30s</t>
   </si>
   <si>
     <t>4Q '19 PT Total</t>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{95FF1907-A241-4455-BD7A-9BC1FC65151D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D312C421-F63C-4CA8-95C5-97BA3F7CB93C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="27360" windowHeight="15240" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6354,6 +6354,11 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -6363,11 +6368,6 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -7601,6 +7601,14 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="F39:U39"/>
+    <mergeCell ref="F31:U31"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="O7:U7"/>
+    <mergeCell ref="F33:U33"/>
+    <mergeCell ref="F35:U35"/>
+    <mergeCell ref="F37:U37"/>
+    <mergeCell ref="O15:U15"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="E5:G5"/>
@@ -7609,14 +7617,6 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="F39:U39"/>
-    <mergeCell ref="F31:U31"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="O7:U7"/>
-    <mergeCell ref="F33:U33"/>
-    <mergeCell ref="F35:U35"/>
-    <mergeCell ref="F37:U37"/>
-    <mergeCell ref="O15:U15"/>
     <mergeCell ref="I24:N24"/>
     <mergeCell ref="O24:U24"/>
   </mergeCells>
@@ -7708,6 +7708,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000192CE90DA120240A67EE82BE1FBFF43" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623d129459d6fae29ac2c5d491c3782f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0e2beb7e-37df-4602-aab8-4f6673c75e9a" xmlns:ns4="eaec1813-26bf-4c98-9021-907af21e1945" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfd2e6b22ac1ad737273b5b960116aad" ns3:_="" ns4:_="">
     <xsd:import namespace="0e2beb7e-37df-4602-aab8-4f6673c75e9a"/>
@@ -7930,15 +7939,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -7946,6 +7946,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB68F43B-E0EF-42BE-BAC3-92E4E861A7D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53520415-44BC-4FFA-B7D1-C1B985B55107}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7960,14 +7968,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB68F43B-E0EF-42BE-BAC3-92E4E861A7D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D312C421-F63C-4CA8-95C5-97BA3F7CB93C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4FFE7DFA-B30C-4ED1-B48F-559D69B40A92}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="27360" windowHeight="15240" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,6 +196,9 @@
     <t>Posting</t>
   </si>
   <si>
+    <t>DAY - M-SU 09:00am - 04:00pm, EMN - M-SU 04:00am - 10:00am, PT - M-SU 08:00pm - 11:00pm</t>
+  </si>
+  <si>
     <t>4Q '19 DAY :30s</t>
   </si>
   <si>
@@ -244,7 +247,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/24/20</t>
+    <t>Created 02/25/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -293,9 +296,6 @@
   </si>
   <si>
     <t>~80% Minimum TV HH Coverage</t>
-  </si>
-  <si>
-    <t>DAY - M-SU 09:00am - 04:00pm, EMN - M-SU 04:00am - 10:00am, PT - M-SU 08:00pm - 11:00pm</t>
   </si>
   <si>
     <t>All CPMs are derived from 100% broadcast deliveries, no cable unless otherwise noted.</t>
@@ -1696,7 +1696,7 @@
   </sheetPr>
   <dimension ref="A2:P61"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" tabSelected="0">
+    <sheetView showGridLines="0" tabSelected="0" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1723,8 +1723,9 @@
       </c>
       <c r="G2" s="7"/>
       <c r="K2" s="7"/>
-      <c r="P2" s="8" t="s">
-        <v>1</v>
+      <c r="P2" s="8" t="str">
+        <f>'PROPOSAL'!U2</f>
+        <v>Created 02/25/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -1748,9 +1749,8 @@
         <f>'PROPOSAL'!O5</f>
         <v>NTI</v>
       </c>
-      <c r="D5" s="123">
-        <f>'PROPOSAL'!F41</f>
-        <v>0</v>
+      <c r="D5" s="123" t="s">
+        <v>54</v>
       </c>
       <c r="E5" s="123"/>
       <c r="F5" s="123"/>
@@ -1770,22 +1770,22 @@
     </row>
     <row r="7">
       <c r="B7" s="52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="128"/>
       <c r="E7" s="128"/>
       <c r="F7" s="129"/>
       <c r="G7" s="128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7" s="128"/>
       <c r="I7" s="128"/>
       <c r="J7" s="129"/>
       <c r="K7" s="127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L7" s="128"/>
       <c r="M7" s="128"/>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="B9" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="99">
         <v>0</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="61">
         <v>0</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="B14" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="119"/>
       <c r="D14" s="120"/>
@@ -2094,22 +2094,22 @@
     </row>
     <row r="16">
       <c r="B16" s="52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="128"/>
       <c r="E16" s="128"/>
       <c r="F16" s="129"/>
       <c r="G16" s="128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H16" s="128"/>
       <c r="I16" s="128"/>
       <c r="J16" s="129"/>
       <c r="K16" s="127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L16" s="128"/>
       <c r="M16" s="128"/>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="B18" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="99">
         <v>0</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="B22" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="61">
         <v>0</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="B23" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="119"/>
       <c r="D23" s="120"/>
@@ -2418,22 +2418,22 @@
     </row>
     <row r="25">
       <c r="B25" s="52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="128"/>
       <c r="E25" s="128"/>
       <c r="F25" s="129"/>
       <c r="G25" s="128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H25" s="128"/>
       <c r="I25" s="128"/>
       <c r="J25" s="129"/>
       <c r="K25" s="127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L25" s="128"/>
       <c r="M25" s="128"/>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="B27" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="99">
         <v>0</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="B31" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" s="61">
         <v>0</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="B32" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="119"/>
       <c r="D32" s="120"/>
@@ -2742,22 +2742,22 @@
     </row>
     <row r="34">
       <c r="B34" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" s="127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" s="128"/>
       <c r="E34" s="128"/>
       <c r="F34" s="129"/>
       <c r="G34" s="128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H34" s="128"/>
       <c r="I34" s="128"/>
       <c r="J34" s="129"/>
       <c r="K34" s="127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L34" s="128"/>
       <c r="M34" s="128"/>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="36" ht="24" customHeight="1">
       <c r="B36" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" s="99">
         <v>0</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="B40" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="61">
         <v>0</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="B41" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="119"/>
       <c r="D41" s="120"/>
@@ -3066,22 +3066,22 @@
     </row>
     <row r="43">
       <c r="B43" s="52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" s="127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43" s="128"/>
       <c r="E43" s="128"/>
       <c r="F43" s="129"/>
       <c r="G43" s="128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H43" s="128"/>
       <c r="I43" s="128"/>
       <c r="J43" s="129"/>
       <c r="K43" s="127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L43" s="128"/>
       <c r="M43" s="128"/>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="45" ht="24" customHeight="1">
       <c r="B45" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45" s="99">
         <v>0</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="B49" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="61">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="B50" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" s="119"/>
       <c r="D50" s="120"/>
@@ -3390,22 +3390,22 @@
     </row>
     <row r="52">
       <c r="B52" s="52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52" s="127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52" s="128"/>
       <c r="E52" s="128"/>
       <c r="F52" s="129"/>
       <c r="G52" s="128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H52" s="128"/>
       <c r="I52" s="128"/>
       <c r="J52" s="129"/>
       <c r="K52" s="127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L52" s="128"/>
       <c r="M52" s="128"/>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="54" ht="24" customHeight="1">
       <c r="B54" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" s="99">
         <v>0</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="58" ht="24" customHeight="1">
       <c r="B58" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" s="61">
         <v>0</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="59" ht="30" customHeight="1">
       <c r="B59" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" s="119"/>
       <c r="D59" s="120"/>
@@ -3852,7 +3852,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>16</v>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="B7" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -6409,10 +6409,10 @@
     <row r="2" ht="24" customHeight="1">
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6447,25 +6447,25 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="5" customFormat="1">
       <c r="C5" s="123" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="123"/>
       <c r="E5" s="123" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" s="123"/>
       <c r="G5" s="123"/>
       <c r="H5" s="70"/>
       <c r="I5" s="123" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J5" s="123"/>
       <c r="K5" s="123" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L5" s="123"/>
       <c r="M5" s="123" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N5" s="123"/>
       <c r="O5" s="65" t="s">
@@ -6497,7 +6497,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="9"/>
@@ -6513,7 +6513,7 @@
       <c r="M7" s="128"/>
       <c r="N7" s="129"/>
       <c r="O7" s="127" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P7" s="128"/>
       <c r="Q7" s="128"/>
@@ -6524,14 +6524,14 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>23</v>
@@ -6585,14 +6585,14 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E9" s="74">
         <v>0</v>
@@ -6646,14 +6646,14 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E10" s="74">
         <v>0</v>
@@ -6707,14 +6707,14 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11" s="74">
         <v>0</v>
@@ -6770,7 +6770,7 @@
       <c r="B12" s="27"/>
       <c r="C12" s="38"/>
       <c r="D12" s="39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12" s="50">
         <v>0</v>
@@ -6828,13 +6828,13 @@
     <row r="14" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="B14" s="57"/>
       <c r="H14" s="81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="B15" s="57"/>
       <c r="H15" s="127" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I15" s="128"/>
       <c r="J15" s="128"/>
@@ -6897,7 +6897,7 @@
     </row>
     <row r="17" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="A17" s="71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B17" s="57"/>
       <c r="H17" s="115">
@@ -6931,7 +6931,7 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B18" s="57"/>
       <c r="H18" s="115">
@@ -6965,7 +6965,7 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" s="57"/>
       <c r="H19" s="115">
@@ -7085,7 +7085,7 @@
       <c r="M24" s="128"/>
       <c r="N24" s="129"/>
       <c r="O24" s="127" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P24" s="128"/>
       <c r="Q24" s="128"/>
@@ -7096,14 +7096,14 @@
     </row>
     <row r="25" ht="24" customHeight="1">
       <c r="A25" s="69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E25" s="39" t="s">
         <v>23</v>
@@ -7157,14 +7157,14 @@
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="A26" s="69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E26" s="74">
         <v>0</v>
@@ -7218,14 +7218,14 @@
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="A27" s="69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E27" s="74">
         <v>0</v>
@@ -7279,14 +7279,14 @@
     </row>
     <row r="28" ht="24" customHeight="1">
       <c r="A28" s="69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E28" s="74">
         <v>0</v>
@@ -7342,7 +7342,7 @@
       <c r="B29" s="27"/>
       <c r="C29" s="38"/>
       <c r="D29" s="39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E29" s="50">
         <v>0</v>
@@ -7402,7 +7402,7 @@
       <c r="D31" s="54"/>
       <c r="E31" s="72"/>
       <c r="F31" s="133" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G31" s="133"/>
       <c r="H31" s="133"/>
@@ -7448,7 +7448,7 @@
       </c>
       <c r="D33" s="54"/>
       <c r="F33" s="133" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="G33" s="133"/>
       <c r="H33" s="133"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Broadcast Proposal Gorilla Glue Q4 '19 - Q1 '20</t>
   </si>
@@ -247,7 +247,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/25/20</t>
+    <t>Created 02/26/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>A18-54</t>
+  </si>
+  <si>
+    <t>A25+</t>
+  </si>
+  <si>
+    <t>A35-49</t>
   </si>
   <si>
     <t>~80% Minimum TV HH Coverage</t>
@@ -628,7 +634,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="128">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
@@ -946,24 +952,6 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0">
@@ -1725,7 +1713,7 @@
       <c r="K2" s="7"/>
       <c r="P2" s="8" t="str">
         <f>'PROPOSAL'!U2</f>
-        <v>Created 02/25/20</v>
+        <v>Created 02/26/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -1749,21 +1737,21 @@
         <f>'PROPOSAL'!O5</f>
         <v>NTI</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
     </row>
     <row r="6" ht="24" customHeight="1">
       <c r="P6" s="57"/>
@@ -1772,25 +1760,25 @@
       <c r="B7" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="128" t="s">
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="127" t="s">
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="129"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="123"/>
       <c r="P7" s="32"/>
     </row>
     <row r="8" ht="24" customHeight="1">
@@ -1839,7 +1827,7 @@
       </c>
     </row>
     <row r="9" ht="24" customHeight="1">
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="99">
@@ -1886,7 +1874,7 @@
       </c>
     </row>
     <row r="10" ht="24" customHeight="1">
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="102">
@@ -1933,7 +1921,7 @@
       </c>
     </row>
     <row r="11" ht="24" customHeight="1">
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="101">
@@ -1980,7 +1968,7 @@
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="104">
@@ -2027,7 +2015,7 @@
       </c>
     </row>
     <row r="13" ht="24" customHeight="1">
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="61">
@@ -2077,44 +2065,44 @@
       <c r="B14" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="122"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="116"/>
     </row>
     <row r="16">
       <c r="B16" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="128" t="s">
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="127" t="s">
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="129"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="123"/>
       <c r="P16" s="32"/>
     </row>
     <row r="17" ht="24" customHeight="1">
@@ -2163,7 +2151,7 @@
       </c>
     </row>
     <row r="18" ht="24" customHeight="1">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="99">
@@ -2210,7 +2198,7 @@
       </c>
     </row>
     <row r="19" ht="24" customHeight="1">
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="102">
@@ -2257,7 +2245,7 @@
       </c>
     </row>
     <row r="20" ht="24" customHeight="1">
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="101">
@@ -2304,7 +2292,7 @@
       </c>
     </row>
     <row r="21" ht="24" customHeight="1">
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="104">
@@ -2351,7 +2339,7 @@
       </c>
     </row>
     <row r="22" ht="24" customHeight="1">
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="61">
@@ -2401,44 +2389,44 @@
       <c r="B23" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="122"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="116"/>
     </row>
     <row r="25">
       <c r="B25" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="128" t="s">
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="127" t="s">
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="128"/>
-      <c r="M25" s="128"/>
-      <c r="N25" s="128"/>
-      <c r="O25" s="129"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="123"/>
       <c r="P25" s="32"/>
     </row>
     <row r="26" ht="24" customHeight="1">
@@ -2487,7 +2475,7 @@
       </c>
     </row>
     <row r="27" ht="24" customHeight="1">
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C27" s="99">
@@ -2534,7 +2522,7 @@
       </c>
     </row>
     <row r="28" ht="24" customHeight="1">
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="102">
@@ -2581,7 +2569,7 @@
       </c>
     </row>
     <row r="29" ht="24" customHeight="1">
-      <c r="B29" s="118" t="s">
+      <c r="B29" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="101">
@@ -2628,7 +2616,7 @@
       </c>
     </row>
     <row r="30" ht="24" customHeight="1">
-      <c r="B30" s="118" t="s">
+      <c r="B30" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="104">
@@ -2675,7 +2663,7 @@
       </c>
     </row>
     <row r="31" ht="24" customHeight="1">
-      <c r="B31" s="118" t="s">
+      <c r="B31" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="61">
@@ -2725,44 +2713,44 @@
       <c r="B32" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="119"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="121"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="120"/>
-      <c r="N32" s="120"/>
-      <c r="O32" s="121"/>
-      <c r="P32" s="122"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="116"/>
     </row>
     <row r="34">
       <c r="B34" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="127" t="s">
+      <c r="C34" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="128" t="s">
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="128"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="127" t="s">
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="128"/>
-      <c r="M34" s="128"/>
-      <c r="N34" s="128"/>
-      <c r="O34" s="129"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="122"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="123"/>
       <c r="P34" s="32"/>
     </row>
     <row r="35" ht="24" customHeight="1">
@@ -2811,7 +2799,7 @@
       </c>
     </row>
     <row r="36" ht="24" customHeight="1">
-      <c r="B36" s="117" t="s">
+      <c r="B36" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C36" s="99">
@@ -2858,7 +2846,7 @@
       </c>
     </row>
     <row r="37" ht="24" customHeight="1">
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="102">
@@ -2905,7 +2893,7 @@
       </c>
     </row>
     <row r="38" ht="24" customHeight="1">
-      <c r="B38" s="118" t="s">
+      <c r="B38" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="101">
@@ -2952,7 +2940,7 @@
       </c>
     </row>
     <row r="39" ht="24" customHeight="1">
-      <c r="B39" s="118" t="s">
+      <c r="B39" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="104">
@@ -2999,7 +2987,7 @@
       </c>
     </row>
     <row r="40" ht="24" customHeight="1">
-      <c r="B40" s="118" t="s">
+      <c r="B40" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C40" s="61">
@@ -3049,44 +3037,44 @@
       <c r="B41" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="119"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="120"/>
-      <c r="J41" s="121"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="120"/>
-      <c r="M41" s="120"/>
-      <c r="N41" s="120"/>
-      <c r="O41" s="121"/>
-      <c r="P41" s="122"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="115"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="115"/>
+      <c r="P41" s="116"/>
     </row>
     <row r="43">
       <c r="B43" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="127" t="s">
+      <c r="C43" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="128" t="s">
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="123"/>
+      <c r="G43" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="127" t="s">
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="L43" s="128"/>
-      <c r="M43" s="128"/>
-      <c r="N43" s="128"/>
-      <c r="O43" s="129"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="123"/>
       <c r="P43" s="32"/>
     </row>
     <row r="44" ht="24" customHeight="1">
@@ -3135,7 +3123,7 @@
       </c>
     </row>
     <row r="45" ht="24" customHeight="1">
-      <c r="B45" s="117" t="s">
+      <c r="B45" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C45" s="99">
@@ -3182,7 +3170,7 @@
       </c>
     </row>
     <row r="46" ht="24" customHeight="1">
-      <c r="B46" s="118" t="s">
+      <c r="B46" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="102">
@@ -3229,7 +3217,7 @@
       </c>
     </row>
     <row r="47" ht="24" customHeight="1">
-      <c r="B47" s="118" t="s">
+      <c r="B47" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C47" s="101">
@@ -3276,7 +3264,7 @@
       </c>
     </row>
     <row r="48" ht="24" customHeight="1">
-      <c r="B48" s="118" t="s">
+      <c r="B48" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="104">
@@ -3323,7 +3311,7 @@
       </c>
     </row>
     <row r="49" ht="24" customHeight="1">
-      <c r="B49" s="118" t="s">
+      <c r="B49" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C49" s="61">
@@ -3373,44 +3361,44 @@
       <c r="B50" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="119"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="120"/>
-      <c r="F50" s="120"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="120"/>
-      <c r="J50" s="121"/>
-      <c r="K50" s="119"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120"/>
-      <c r="N50" s="120"/>
-      <c r="O50" s="121"/>
-      <c r="P50" s="122"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="115"/>
+      <c r="K50" s="113"/>
+      <c r="L50" s="114"/>
+      <c r="M50" s="114"/>
+      <c r="N50" s="114"/>
+      <c r="O50" s="115"/>
+      <c r="P50" s="116"/>
     </row>
     <row r="52">
       <c r="B52" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="127" t="s">
+      <c r="C52" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="128"/>
-      <c r="E52" s="128"/>
-      <c r="F52" s="129"/>
-      <c r="G52" s="128" t="s">
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="123"/>
+      <c r="G52" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="128"/>
-      <c r="I52" s="128"/>
-      <c r="J52" s="129"/>
-      <c r="K52" s="127" t="s">
+      <c r="H52" s="122"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="123"/>
+      <c r="K52" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="L52" s="128"/>
-      <c r="M52" s="128"/>
-      <c r="N52" s="128"/>
-      <c r="O52" s="129"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="123"/>
       <c r="P52" s="32"/>
     </row>
     <row r="53" ht="24" customHeight="1">
@@ -3459,7 +3447,7 @@
       </c>
     </row>
     <row r="54" ht="24" customHeight="1">
-      <c r="B54" s="117" t="s">
+      <c r="B54" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C54" s="99">
@@ -3506,7 +3494,7 @@
       </c>
     </row>
     <row r="55" ht="24" customHeight="1">
-      <c r="B55" s="118" t="s">
+      <c r="B55" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="102">
@@ -3553,7 +3541,7 @@
       </c>
     </row>
     <row r="56" ht="24" customHeight="1">
-      <c r="B56" s="118" t="s">
+      <c r="B56" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C56" s="101">
@@ -3600,7 +3588,7 @@
       </c>
     </row>
     <row r="57" ht="24" customHeight="1">
-      <c r="B57" s="118" t="s">
+      <c r="B57" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C57" s="104">
@@ -3647,7 +3635,7 @@
       </c>
     </row>
     <row r="58" ht="24" customHeight="1">
-      <c r="B58" s="118" t="s">
+      <c r="B58" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C58" s="61">
@@ -3697,20 +3685,20 @@
       <c r="B59" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="120"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="119"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
-      <c r="J59" s="121"/>
-      <c r="K59" s="119"/>
-      <c r="L59" s="120"/>
-      <c r="M59" s="120"/>
-      <c r="N59" s="120"/>
-      <c r="O59" s="121"/>
-      <c r="P59" s="122"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="114"/>
+      <c r="F59" s="114"/>
+      <c r="G59" s="113"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="114"/>
+      <c r="J59" s="115"/>
+      <c r="K59" s="113"/>
+      <c r="L59" s="114"/>
+      <c r="M59" s="114"/>
+      <c r="N59" s="114"/>
+      <c r="O59" s="115"/>
+      <c r="P59" s="116"/>
     </row>
     <row r="61" ht="24" customHeight="1" s="91" customFormat="1">
       <c r="C61" s="92"/>
@@ -3891,24 +3879,24 @@
       <c r="D7" s="9"/>
       <c r="E7" s="23"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="130" t="s">
+      <c r="G7" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="131"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="125"/>
       <c r="M7" s="33"/>
-      <c r="N7" s="130" t="s">
+      <c r="N7" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="130"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="131"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="125"/>
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="27"/>
@@ -4152,24 +4140,24 @@
       <c r="D13" s="9"/>
       <c r="E13" s="23"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="127" t="s">
+      <c r="G13" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="129"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="123"/>
       <c r="M13" s="33"/>
-      <c r="N13" s="127" t="s">
+      <c r="N13" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="128"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="128"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="129"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="123"/>
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="B14" s="38" t="s">
@@ -4409,24 +4397,24 @@
       <c r="D19" s="9"/>
       <c r="E19" s="23"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="127" t="s">
+      <c r="G19" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="129"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="123"/>
       <c r="M19" s="33"/>
-      <c r="N19" s="127" t="s">
+      <c r="N19" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="128"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="129"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="122"/>
+      <c r="T19" s="123"/>
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="B20" s="38" t="s">
@@ -4696,25 +4684,25 @@
       <c r="B25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="132" t="s">
+      <c r="D25" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="132"/>
-      <c r="Q25" s="132"/>
-      <c r="R25" s="132"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="132"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="126"/>
+      <c r="T25" s="126"/>
     </row>
     <row r="26" ht="8.1" customHeight="1">
       <c r="B26" s="4"/>
@@ -4740,25 +4728,25 @@
       <c r="B27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="132" t="s">
+      <c r="D27" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="132"/>
-      <c r="Q27" s="132"/>
-      <c r="R27" s="132"/>
-      <c r="S27" s="132"/>
-      <c r="T27" s="132"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="126"/>
+      <c r="S27" s="126"/>
+      <c r="T27" s="126"/>
     </row>
     <row r="28" ht="8.1" customHeight="1">
       <c r="B28" s="4"/>
@@ -4784,25 +4772,25 @@
       <c r="B29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="132" t="s">
+      <c r="D29" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="132"/>
-      <c r="Q29" s="132"/>
-      <c r="R29" s="132"/>
-      <c r="S29" s="132"/>
-      <c r="T29" s="132"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="126"/>
+      <c r="O29" s="126"/>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="126"/>
+      <c r="S29" s="126"/>
+      <c r="T29" s="126"/>
     </row>
     <row r="30" ht="8.1" customHeight="1">
       <c r="B30" s="4"/>
@@ -4828,25 +4816,25 @@
       <c r="B31" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="132" t="s">
+      <c r="D31" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="132"/>
-      <c r="Q31" s="132"/>
-      <c r="R31" s="132"/>
-      <c r="S31" s="132"/>
-      <c r="T31" s="132"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="126"/>
+      <c r="O31" s="126"/>
+      <c r="P31" s="126"/>
+      <c r="Q31" s="126"/>
+      <c r="R31" s="126"/>
+      <c r="S31" s="126"/>
+      <c r="T31" s="126"/>
     </row>
     <row r="32" ht="8.1" customHeight="1">
       <c r="B32" s="4"/>
@@ -4872,25 +4860,25 @@
       <c r="B33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="132" t="s">
+      <c r="D33" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="132"/>
-      <c r="P33" s="132"/>
-      <c r="Q33" s="132"/>
-      <c r="R33" s="132"/>
-      <c r="S33" s="132"/>
-      <c r="T33" s="132"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="126"/>
+      <c r="O33" s="126"/>
+      <c r="P33" s="126"/>
+      <c r="Q33" s="126"/>
+      <c r="R33" s="126"/>
+      <c r="S33" s="126"/>
+      <c r="T33" s="126"/>
     </row>
     <row r="34" ht="8.1" customHeight="1">
       <c r="B34" s="4"/>
@@ -4916,25 +4904,25 @@
       <c r="B35" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="126" t="s">
+      <c r="D35" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
-      <c r="O35" s="126"/>
-      <c r="P35" s="126"/>
-      <c r="Q35" s="126"/>
-      <c r="R35" s="126"/>
-      <c r="S35" s="126"/>
-      <c r="T35" s="126"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="120"/>
+      <c r="K35" s="120"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="120"/>
+      <c r="N35" s="120"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="120"/>
+      <c r="Q35" s="120"/>
+      <c r="R35" s="120"/>
+      <c r="S35" s="120"/>
+      <c r="T35" s="120"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -5077,24 +5065,24 @@
       <c r="D7" s="9"/>
       <c r="E7" s="23"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="130" t="s">
+      <c r="G7" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="131"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="125"/>
       <c r="M7" s="33"/>
-      <c r="N7" s="130" t="s">
+      <c r="N7" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="130"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="131"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="125"/>
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="27"/>
@@ -5336,24 +5324,24 @@
       <c r="D13" s="9"/>
       <c r="E13" s="23"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="127" t="s">
+      <c r="G13" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="129"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="123"/>
       <c r="M13" s="33"/>
-      <c r="N13" s="127" t="s">
+      <c r="N13" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="128"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="128"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="129"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="123"/>
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="B14" s="38" t="s">
@@ -5591,24 +5579,24 @@
       <c r="D19" s="9"/>
       <c r="E19" s="23"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="127" t="s">
+      <c r="G19" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="129"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="123"/>
       <c r="M19" s="33"/>
-      <c r="N19" s="127" t="s">
+      <c r="N19" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="128"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="129"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="122"/>
+      <c r="T19" s="123"/>
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="B20" s="38" t="s">
@@ -5846,24 +5834,24 @@
       <c r="D25" s="9"/>
       <c r="E25" s="23"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="127" t="s">
+      <c r="G25" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="129"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="123"/>
       <c r="M25" s="33"/>
-      <c r="N25" s="127" t="s">
+      <c r="N25" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="128"/>
-      <c r="P25" s="128"/>
-      <c r="Q25" s="128"/>
-      <c r="R25" s="128"/>
-      <c r="S25" s="128"/>
-      <c r="T25" s="129"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="123"/>
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="B26" s="38" t="s">
@@ -6101,26 +6089,26 @@
       <c r="B31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="123" t="s">
+      <c r="C31" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="123"/>
-      <c r="S31" s="123"/>
-      <c r="T31" s="123"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="117"/>
+      <c r="Q31" s="117"/>
+      <c r="R31" s="117"/>
+      <c r="S31" s="117"/>
+      <c r="T31" s="117"/>
     </row>
     <row r="32" ht="8.1" customHeight="1">
       <c r="B32" s="4"/>
@@ -6147,26 +6135,26 @@
       <c r="B33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="123" t="s">
+      <c r="C33" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="123"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="117"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="117"/>
+      <c r="Q33" s="117"/>
+      <c r="R33" s="117"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="117"/>
     </row>
     <row r="34" ht="8.1" customHeight="1">
       <c r="B34" s="4"/>
@@ -6193,26 +6181,26 @@
       <c r="B35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="123" t="s">
+      <c r="C35" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="123"/>
-      <c r="N35" s="123"/>
-      <c r="O35" s="123"/>
-      <c r="P35" s="123"/>
-      <c r="Q35" s="123"/>
-      <c r="R35" s="123"/>
-      <c r="S35" s="123"/>
-      <c r="T35" s="123"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="117"/>
+      <c r="Q35" s="117"/>
+      <c r="R35" s="117"/>
+      <c r="S35" s="117"/>
+      <c r="T35" s="117"/>
     </row>
     <row r="36" ht="8.1" customHeight="1">
       <c r="B36" s="4"/>
@@ -6239,26 +6227,26 @@
       <c r="B37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="123" t="s">
+      <c r="C37" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="123"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="123"/>
-      <c r="N37" s="123"/>
-      <c r="O37" s="123"/>
-      <c r="P37" s="123"/>
-      <c r="Q37" s="123"/>
-      <c r="R37" s="123"/>
-      <c r="S37" s="123"/>
-      <c r="T37" s="123"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="117"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="117"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="117"/>
+      <c r="Q37" s="117"/>
+      <c r="R37" s="117"/>
+      <c r="S37" s="117"/>
+      <c r="T37" s="117"/>
     </row>
     <row r="38" ht="8.1" customHeight="1">
       <c r="B38" s="4"/>
@@ -6285,26 +6273,26 @@
       <c r="B39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="123" t="s">
+      <c r="C39" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="123"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="123"/>
-      <c r="K39" s="123"/>
-      <c r="L39" s="123"/>
-      <c r="M39" s="123"/>
-      <c r="N39" s="123"/>
-      <c r="O39" s="123"/>
-      <c r="P39" s="123"/>
-      <c r="Q39" s="123"/>
-      <c r="R39" s="123"/>
-      <c r="S39" s="123"/>
-      <c r="T39" s="123"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="117"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="117"/>
+      <c r="Q39" s="117"/>
+      <c r="R39" s="117"/>
+      <c r="S39" s="117"/>
+      <c r="T39" s="117"/>
     </row>
     <row r="40" ht="8.1" customHeight="1">
       <c r="B40" s="4"/>
@@ -6331,26 +6319,26 @@
       <c r="B41" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="124" t="s">
+      <c r="C41" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="124"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="124"/>
-      <c r="M41" s="124"/>
-      <c r="N41" s="124"/>
-      <c r="O41" s="124"/>
-      <c r="P41" s="124"/>
-      <c r="Q41" s="124"/>
-      <c r="R41" s="124"/>
-      <c r="S41" s="124"/>
-      <c r="T41" s="124"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="118"/>
+      <c r="K41" s="118"/>
+      <c r="L41" s="118"/>
+      <c r="M41" s="118"/>
+      <c r="N41" s="118"/>
+      <c r="O41" s="118"/>
+      <c r="P41" s="118"/>
+      <c r="Q41" s="118"/>
+      <c r="R41" s="118"/>
+      <c r="S41" s="118"/>
+      <c r="T41" s="118"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -6381,7 +6369,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V39"/>
+  <dimension ref="A2:V61"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScalePageLayoutView="90" workbookViewId="0" tabSelected="1">
       <selection activeCell="C5" sqref="C5:D5"/>
@@ -6446,36 +6434,36 @@
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" s="5" customFormat="1">
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123" t="s">
+      <c r="D5" s="117"/>
+      <c r="E5" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
       <c r="H5" s="70"/>
-      <c r="I5" s="123" t="s">
+      <c r="I5" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123" t="s">
+      <c r="J5" s="117"/>
+      <c r="K5" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123" t="s">
+      <c r="L5" s="117"/>
+      <c r="M5" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="N5" s="123"/>
+      <c r="N5" s="117"/>
       <c r="O5" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="123"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
       <c r="U5" s="5" t="s">
         <v>19</v>
       </c>
@@ -6504,23 +6492,23 @@
       <c r="F7" s="9"/>
       <c r="G7" s="23"/>
       <c r="H7" s="58"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="127" t="s">
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="128"/>
-      <c r="U7" s="129"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="122"/>
+      <c r="U7" s="123"/>
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="69" t="s">
@@ -6604,11 +6592,11 @@
         <v>125000</v>
       </c>
       <c r="H9" s="76"/>
-      <c r="I9" s="116">
+      <c r="I9" s="110">
         <v>0</v>
       </c>
       <c r="J9" s="78">
-        <v>9.072918318693878</v>
+        <v>8.291873963515755</v>
       </c>
       <c r="K9" s="74">
         <v>0</v>
@@ -6620,7 +6608,7 @@
         <v>12.5</v>
       </c>
       <c r="N9" s="76">
-        <v>13777.264999999996</v>
+        <v>15074.999999999991</v>
       </c>
       <c r="O9" s="80">
         <v>0.5</v>
@@ -6665,11 +6653,11 @@
         <v>125000</v>
       </c>
       <c r="H10" s="76"/>
-      <c r="I10" s="116">
+      <c r="I10" s="110">
         <v>0</v>
       </c>
       <c r="J10" s="78">
-        <v>9.072918318693878</v>
+        <v>8.291873963515755</v>
       </c>
       <c r="K10" s="74">
         <v>0</v>
@@ -6681,7 +6669,7 @@
         <v>12.5</v>
       </c>
       <c r="N10" s="76">
-        <v>13777.264999999996</v>
+        <v>15074.999999999991</v>
       </c>
       <c r="O10" s="80">
         <v>0.5</v>
@@ -6726,11 +6714,11 @@
         <v>250000</v>
       </c>
       <c r="H11" s="76"/>
-      <c r="I11" s="116">
+      <c r="I11" s="110">
         <v>0</v>
       </c>
       <c r="J11" s="78">
-        <v>18.145836637387756</v>
+        <v>16.58374792703151</v>
       </c>
       <c r="K11" s="74">
         <v>0</v>
@@ -6742,7 +6730,7 @@
         <v>12.5</v>
       </c>
       <c r="N11" s="76">
-        <v>13777.264999999967</v>
+        <v>15075.000000000009</v>
       </c>
       <c r="O11" s="80">
         <v>0.5</v>
@@ -6781,13 +6769,13 @@
       <c r="G12" s="41">
         <v>500000</v>
       </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="51" t="s">
+      <c r="H12" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="68">
-        <v>36.291673274775512</v>
-      </c>
+      <c r="I12" s="51">
+        <v>33.16749585406302</v>
+      </c>
+      <c r="J12" s="68"/>
       <c r="K12" s="50" t="s">
         <v>38</v>
       </c>
@@ -6798,7 +6786,7 @@
         <v>12.5</v>
       </c>
       <c r="N12" s="42">
-        <v>13777.265000000005</v>
+        <v>15075.000000000009</v>
       </c>
       <c r="O12" s="44" t="s">
         <v>38</v>
@@ -6833,22 +6821,24 @@
     </row>
     <row r="15" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="B15" s="57"/>
-      <c r="H15" s="127" t="s">
+      <c r="H15" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="129"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="121" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="122"/>
+      <c r="T15" s="122"/>
+      <c r="U15" s="123"/>
     </row>
     <row r="16" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="B16" s="57"/>
@@ -6900,14 +6890,19 @@
         <v>82</v>
       </c>
       <c r="B17" s="57"/>
-      <c r="H17" s="115">
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="109">
         <v>1.2249285870629532</v>
       </c>
       <c r="I17" s="83">
         <v>0</v>
       </c>
       <c r="J17" s="84">
-        <v>9.27836584001722</v>
+        <v>8.1776392754052551</v>
       </c>
       <c r="K17" s="82">
         <v>0</v>
@@ -6919,29 +6914,48 @@
         <v>10.204676527283638</v>
       </c>
       <c r="N17" s="86">
-        <v>13472.199970912983</v>
-      </c>
-      <c r="O17" s="87"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="86"/>
+        <v>15285.584970218115</v>
+      </c>
+      <c r="O17" s="87">
+        <v>1.7819581121403867</v>
+      </c>
+      <c r="P17" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="84">
+        <v>8.3043998142435758</v>
+      </c>
+      <c r="R17" s="82">
+        <v>0</v>
+      </c>
+      <c r="S17" s="82">
+        <v>17819.581121403866</v>
+      </c>
+      <c r="T17" s="85">
+        <v>7.014755237420081</v>
+      </c>
+      <c r="U17" s="86">
+        <v>15052.261788456031</v>
+      </c>
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="69" t="s">
         <v>79</v>
       </c>
       <c r="B18" s="57"/>
-      <c r="H18" s="115">
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="109">
         <v>1.2249285870629532</v>
       </c>
       <c r="I18" s="83">
         <v>0</v>
       </c>
       <c r="J18" s="84">
-        <v>9.27836584001722</v>
+        <v>8.1776392754052551</v>
       </c>
       <c r="K18" s="82">
         <v>0</v>
@@ -6953,29 +6967,48 @@
         <v>10.204676527283638</v>
       </c>
       <c r="N18" s="86">
-        <v>13472.199970912983</v>
-      </c>
-      <c r="O18" s="87"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="86"/>
+        <v>15285.584970218115</v>
+      </c>
+      <c r="O18" s="87">
+        <v>1.7819581121403867</v>
+      </c>
+      <c r="P18" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="84">
+        <v>8.3043998142435758</v>
+      </c>
+      <c r="R18" s="82">
+        <v>0</v>
+      </c>
+      <c r="S18" s="82">
+        <v>17819.581121403866</v>
+      </c>
+      <c r="T18" s="85">
+        <v>7.014755237420081</v>
+      </c>
+      <c r="U18" s="86">
+        <v>15052.261788456031</v>
+      </c>
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="69" t="s">
         <v>82</v>
       </c>
       <c r="B19" s="57"/>
-      <c r="H19" s="115">
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="109">
         <v>1.2249285870629532</v>
       </c>
       <c r="I19" s="83">
         <v>0</v>
       </c>
       <c r="J19" s="84">
-        <v>18.556731680034439</v>
+        <v>16.35527855081051</v>
       </c>
       <c r="K19" s="82">
         <v>0</v>
@@ -6987,15 +7020,29 @@
         <v>10.204676527283597</v>
       </c>
       <c r="N19" s="86">
-        <v>13472.199970913012</v>
-      </c>
-      <c r="O19" s="87"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="86"/>
+        <v>15285.584970218135</v>
+      </c>
+      <c r="O19" s="87">
+        <v>1.7819581121403867</v>
+      </c>
+      <c r="P19" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="84">
+        <v>16.608799628487152</v>
+      </c>
+      <c r="R19" s="82">
+        <v>0</v>
+      </c>
+      <c r="S19" s="82">
+        <v>35639.162242807732</v>
+      </c>
+      <c r="T19" s="85">
+        <v>7.0147552374201005</v>
+      </c>
+      <c r="U19" s="86">
+        <v>15052.261788455995</v>
+      </c>
     </row>
     <row r="20" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="B20" s="57"/>
@@ -7006,7 +7053,7 @@
         <v>38</v>
       </c>
       <c r="J20" s="68">
-        <v>37.113463360068877</v>
+        <v>32.710557101621021</v>
       </c>
       <c r="K20" s="50" t="s">
         <v>38</v>
@@ -7018,596 +7065,1297 @@
         <v>10.204676527283619</v>
       </c>
       <c r="N20" s="42">
-        <v>13472.199970912974</v>
-      </c>
-      <c r="O20" s="44"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="42"/>
-    </row>
-    <row r="21" ht="24" customHeight="1" s="108" customFormat="1">
-      <c r="B21" s="98"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="112"/>
-      <c r="S21" s="112"/>
-      <c r="T21" s="113"/>
-      <c r="U21" s="114"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1" s="71" customFormat="1">
-      <c r="A22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
+        <v>15285.584970218135</v>
+      </c>
+      <c r="O20" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20" s="68">
+        <v>33.2175992569743</v>
+      </c>
+      <c r="R20" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="S20" s="50">
+        <v>71278.324485615463</v>
+      </c>
+      <c r="T20" s="46">
+        <v>7.01475523742009</v>
+      </c>
+      <c r="U20" s="42">
+        <v>15052.26178845604</v>
+      </c>
+    </row>
+    <row r="22" ht="24" customHeight="1">
+      <c r="B22" s="57"/>
+      <c r="H22" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="121"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="122"/>
+      <c r="T22" s="122"/>
+      <c r="U22" s="123"/>
+    </row>
+    <row r="23" ht="24" customHeight="1">
+      <c r="B23" s="57"/>
+      <c r="H23" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="U23" s="43" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="24" ht="24" customHeight="1">
-      <c r="C24" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="127" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="128"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="128"/>
-      <c r="N24" s="129"/>
-      <c r="O24" s="127" t="s">
-        <v>75</v>
-      </c>
-      <c r="P24" s="128"/>
-      <c r="Q24" s="128"/>
-      <c r="R24" s="128"/>
-      <c r="S24" s="128"/>
-      <c r="T24" s="128"/>
-      <c r="U24" s="129"/>
+      <c r="A24" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="109">
+        <v>0.49617646224600087</v>
+      </c>
+      <c r="I24" s="83">
+        <v>0</v>
+      </c>
+      <c r="J24" s="84">
+        <v>8.35173307938059</v>
+      </c>
+      <c r="K24" s="82">
+        <v>0</v>
+      </c>
+      <c r="L24" s="82">
+        <v>4961.7646224600085</v>
+      </c>
+      <c r="M24" s="85">
+        <v>25.192650097542479</v>
+      </c>
+      <c r="N24" s="86">
+        <v>14966.953422949991</v>
+      </c>
+      <c r="O24" s="87"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="85"/>
+      <c r="U24" s="86"/>
     </row>
     <row r="25" ht="24" customHeight="1">
       <c r="A25" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="M25" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N25" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="O25" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P25" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q25" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="R25" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="S25" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T25" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="U25" s="43" t="s">
-        <v>31</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B25" s="57"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="109">
+        <v>0.49617646224600087</v>
+      </c>
+      <c r="I25" s="83">
+        <v>0</v>
+      </c>
+      <c r="J25" s="84">
+        <v>8.35173307938059</v>
+      </c>
+      <c r="K25" s="82">
+        <v>0</v>
+      </c>
+      <c r="L25" s="82">
+        <v>4961.7646224600085</v>
+      </c>
+      <c r="M25" s="85">
+        <v>25.192650097542479</v>
+      </c>
+      <c r="N25" s="86">
+        <v>14966.953422949991</v>
+      </c>
+      <c r="O25" s="87"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="85"/>
+      <c r="U25" s="86"/>
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="A26" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="109">
+        <v>0.49617646224600087</v>
+      </c>
+      <c r="I26" s="83">
+        <v>0</v>
+      </c>
+      <c r="J26" s="84">
+        <v>16.703466158761181</v>
+      </c>
+      <c r="K26" s="82">
+        <v>0</v>
+      </c>
+      <c r="L26" s="82">
+        <v>9923.5292449200169</v>
+      </c>
+      <c r="M26" s="85">
+        <v>25.192650097542479</v>
+      </c>
+      <c r="N26" s="86">
+        <v>14966.953422949975</v>
+      </c>
+      <c r="O26" s="87"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="85"/>
+      <c r="U26" s="86"/>
+    </row>
+    <row r="27" ht="24" customHeight="1">
+      <c r="B27" s="57"/>
+      <c r="H27" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="68">
+        <v>33.406932317522362</v>
+      </c>
+      <c r="K27" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="50">
+        <v>19847.058489840034</v>
+      </c>
+      <c r="M27" s="46">
+        <v>25.192650097542533</v>
+      </c>
+      <c r="N27" s="42">
+        <v>14966.953422949975</v>
+      </c>
+      <c r="O27" s="44"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="42"/>
+    </row>
+    <row r="28" ht="24" customHeight="1" s="108" customFormat="1"/>
+    <row r="29" ht="13.5" customHeight="1" s="71" customFormat="1">
+      <c r="A29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+    </row>
+    <row r="31" ht="24" customHeight="1">
+      <c r="C31" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="52"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="122"/>
+      <c r="T31" s="122"/>
+      <c r="U31" s="123"/>
+    </row>
+    <row r="32" ht="24" customHeight="1">
+      <c r="A32" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="40"/>
+      <c r="I32" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="R32" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="S32" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="T32" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="U32" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" ht="24" customHeight="1">
+      <c r="A33" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="10" t="s">
+      <c r="B33" s="27"/>
+      <c r="C33" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="74">
-        <v>0</v>
-      </c>
-      <c r="F26" s="75" t="s">
+      <c r="E33" s="74">
+        <v>0</v>
+      </c>
+      <c r="F33" s="75">
+        <v>0</v>
+      </c>
+      <c r="G33" s="88">
+        <v>125000</v>
+      </c>
+      <c r="H33" s="76"/>
+      <c r="I33" s="110">
+        <v>0</v>
+      </c>
+      <c r="J33" s="78">
+        <v>8.291873963515755</v>
+      </c>
+      <c r="K33" s="74">
+        <v>0</v>
+      </c>
+      <c r="L33" s="74">
+        <v>10000</v>
+      </c>
+      <c r="M33" s="79">
+        <v>12.5</v>
+      </c>
+      <c r="N33" s="76">
+        <v>15074.999999999991</v>
+      </c>
+      <c r="O33" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="P33" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="78">
+        <v>37.361500916104</v>
+      </c>
+      <c r="R33" s="74">
+        <v>0</v>
+      </c>
+      <c r="S33" s="74">
+        <v>5000</v>
+      </c>
+      <c r="T33" s="79">
+        <v>25</v>
+      </c>
+      <c r="U33" s="76">
+        <v>3345.69</v>
+      </c>
+    </row>
+    <row r="34" ht="24" customHeight="1">
+      <c r="A34" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="74">
+        <v>0</v>
+      </c>
+      <c r="F34" s="75">
+        <v>0</v>
+      </c>
+      <c r="G34" s="88">
+        <v>125000</v>
+      </c>
+      <c r="H34" s="76"/>
+      <c r="I34" s="110">
+        <v>0</v>
+      </c>
+      <c r="J34" s="78">
+        <v>8.291873963515755</v>
+      </c>
+      <c r="K34" s="74">
+        <v>0</v>
+      </c>
+      <c r="L34" s="74">
+        <v>10000</v>
+      </c>
+      <c r="M34" s="79">
+        <v>12.5</v>
+      </c>
+      <c r="N34" s="76">
+        <v>15074.999999999991</v>
+      </c>
+      <c r="O34" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="P34" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="78">
+        <v>37.361500916104</v>
+      </c>
+      <c r="R34" s="74">
+        <v>0</v>
+      </c>
+      <c r="S34" s="74">
+        <v>5000</v>
+      </c>
+      <c r="T34" s="79">
+        <v>25</v>
+      </c>
+      <c r="U34" s="76">
+        <v>3345.69</v>
+      </c>
+    </row>
+    <row r="35" ht="24" customHeight="1">
+      <c r="A35" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="74">
+        <v>0</v>
+      </c>
+      <c r="F35" s="75">
+        <v>0</v>
+      </c>
+      <c r="G35" s="88">
+        <v>250000</v>
+      </c>
+      <c r="H35" s="76"/>
+      <c r="I35" s="110">
+        <v>0</v>
+      </c>
+      <c r="J35" s="78">
+        <v>16.58374792703151</v>
+      </c>
+      <c r="K35" s="74">
+        <v>0</v>
+      </c>
+      <c r="L35" s="74">
+        <v>20000</v>
+      </c>
+      <c r="M35" s="79">
+        <v>12.5</v>
+      </c>
+      <c r="N35" s="76">
+        <v>15075.000000000009</v>
+      </c>
+      <c r="O35" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="P35" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="78">
+        <v>74.723001832208</v>
+      </c>
+      <c r="R35" s="74">
+        <v>0</v>
+      </c>
+      <c r="S35" s="74">
+        <v>10000</v>
+      </c>
+      <c r="T35" s="79">
+        <v>25</v>
+      </c>
+      <c r="U35" s="76">
+        <v>3345.69</v>
+      </c>
+    </row>
+    <row r="36" ht="24" customHeight="1">
+      <c r="B36" s="27"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="50">
+        <v>0</v>
+      </c>
+      <c r="F36" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="88">
-        <v>125000</v>
-      </c>
-      <c r="H26" s="76"/>
-      <c r="I26" s="116">
-        <v>0</v>
-      </c>
-      <c r="J26" s="78">
-        <v>9.072918318693878</v>
-      </c>
-      <c r="K26" s="74">
-        <v>0</v>
-      </c>
-      <c r="L26" s="74">
-        <v>10000</v>
-      </c>
-      <c r="M26" s="79">
+      <c r="G36" s="41">
+        <v>500000</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="51">
+        <v>33.16749585406302</v>
+      </c>
+      <c r="J36" s="68"/>
+      <c r="K36" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="50">
+        <v>40000</v>
+      </c>
+      <c r="M36" s="46">
         <v>12.5</v>
       </c>
-      <c r="N26" s="76">
-        <v>13777.264999999996</v>
-      </c>
-      <c r="O26" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="P26" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="78">
-        <v>37.361500916104</v>
-      </c>
-      <c r="R26" s="74">
-        <v>0</v>
-      </c>
-      <c r="S26" s="74">
-        <v>5000</v>
-      </c>
-      <c r="T26" s="79">
+      <c r="N36" s="42">
+        <v>15075.000000000009</v>
+      </c>
+      <c r="O36" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="P36" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q36" s="68">
+        <v>149.446003664416</v>
+      </c>
+      <c r="R36" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="S36" s="50">
+        <v>20000</v>
+      </c>
+      <c r="T36" s="46">
         <v>25</v>
       </c>
-      <c r="U26" s="76">
+      <c r="U36" s="42">
         <v>3345.69</v>
       </c>
     </row>
-    <row r="27" ht="24" customHeight="1">
-      <c r="A27" s="69" t="s">
+    <row r="37">
+      <c r="B37" s="57"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="57"/>
+      <c r="H38" s="81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" ht="24" customHeight="1">
+      <c r="B39" s="57"/>
+      <c r="H39" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="122"/>
+      <c r="J39" s="122"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="122"/>
+      <c r="M39" s="122"/>
+      <c r="N39" s="123"/>
+      <c r="O39" s="121" t="s">
+        <v>87</v>
+      </c>
+      <c r="P39" s="122"/>
+      <c r="Q39" s="122"/>
+      <c r="R39" s="122"/>
+      <c r="S39" s="122"/>
+      <c r="T39" s="122"/>
+      <c r="U39" s="123"/>
+    </row>
+    <row r="40" ht="24" customHeight="1">
+      <c r="B40" s="57"/>
+      <c r="H40" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N40" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q40" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="R40" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="S40" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="T40" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="U40" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" ht="24" customHeight="1">
+      <c r="A41" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="74">
-        <v>0</v>
-      </c>
-      <c r="F27" s="75" t="s">
+      <c r="B41" s="57"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="109">
+        <v>1.2249285870629532</v>
+      </c>
+      <c r="I41" s="83">
+        <v>0</v>
+      </c>
+      <c r="J41" s="84">
+        <v>8.1776392754052551</v>
+      </c>
+      <c r="K41" s="82">
+        <v>0</v>
+      </c>
+      <c r="L41" s="82">
+        <v>12249.285870629532</v>
+      </c>
+      <c r="M41" s="85">
+        <v>10.204676527283638</v>
+      </c>
+      <c r="N41" s="86">
+        <v>15285.584970218115</v>
+      </c>
+      <c r="O41" s="87">
+        <v>1.7819581121403867</v>
+      </c>
+      <c r="P41" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="84">
+        <v>8.3043998142435758</v>
+      </c>
+      <c r="R41" s="82">
+        <v>0</v>
+      </c>
+      <c r="S41" s="82">
+        <v>17819.581121403866</v>
+      </c>
+      <c r="T41" s="85">
+        <v>7.014755237420081</v>
+      </c>
+      <c r="U41" s="86">
+        <v>15052.261788456031</v>
+      </c>
+    </row>
+    <row r="42" ht="24" customHeight="1">
+      <c r="A42" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="57"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="109">
+        <v>1.2249285870629532</v>
+      </c>
+      <c r="I42" s="83">
+        <v>0</v>
+      </c>
+      <c r="J42" s="84">
+        <v>8.1776392754052551</v>
+      </c>
+      <c r="K42" s="82">
+        <v>0</v>
+      </c>
+      <c r="L42" s="82">
+        <v>12249.285870629532</v>
+      </c>
+      <c r="M42" s="85">
+        <v>10.204676527283638</v>
+      </c>
+      <c r="N42" s="86">
+        <v>15285.584970218115</v>
+      </c>
+      <c r="O42" s="87">
+        <v>1.7819581121403867</v>
+      </c>
+      <c r="P42" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="84">
+        <v>8.3043998142435758</v>
+      </c>
+      <c r="R42" s="82">
+        <v>0</v>
+      </c>
+      <c r="S42" s="82">
+        <v>17819.581121403866</v>
+      </c>
+      <c r="T42" s="85">
+        <v>7.014755237420081</v>
+      </c>
+      <c r="U42" s="86">
+        <v>15052.261788456031</v>
+      </c>
+    </row>
+    <row r="43" ht="24" customHeight="1">
+      <c r="A43" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="57"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="109">
+        <v>1.2249285870629532</v>
+      </c>
+      <c r="I43" s="83">
+        <v>0</v>
+      </c>
+      <c r="J43" s="84">
+        <v>16.35527855081051</v>
+      </c>
+      <c r="K43" s="82">
+        <v>0</v>
+      </c>
+      <c r="L43" s="82">
+        <v>24498.571741259064</v>
+      </c>
+      <c r="M43" s="85">
+        <v>10.204676527283597</v>
+      </c>
+      <c r="N43" s="86">
+        <v>15285.584970218135</v>
+      </c>
+      <c r="O43" s="87">
+        <v>1.7819581121403867</v>
+      </c>
+      <c r="P43" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="84">
+        <v>16.608799628487152</v>
+      </c>
+      <c r="R43" s="82">
+        <v>0</v>
+      </c>
+      <c r="S43" s="82">
+        <v>35639.162242807732</v>
+      </c>
+      <c r="T43" s="85">
+        <v>7.0147552374201005</v>
+      </c>
+      <c r="U43" s="86">
+        <v>15052.261788455995</v>
+      </c>
+    </row>
+    <row r="44" ht="24" customHeight="1">
+      <c r="B44" s="57"/>
+      <c r="H44" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="88">
-        <v>125000</v>
-      </c>
-      <c r="H27" s="76"/>
-      <c r="I27" s="116">
-        <v>0</v>
-      </c>
-      <c r="J27" s="78">
-        <v>9.072918318693878</v>
-      </c>
-      <c r="K27" s="74">
-        <v>0</v>
-      </c>
-      <c r="L27" s="74">
-        <v>10000</v>
-      </c>
-      <c r="M27" s="79">
-        <v>12.5</v>
-      </c>
-      <c r="N27" s="76">
-        <v>13777.264999999996</v>
-      </c>
-      <c r="O27" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="P27" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="78">
-        <v>37.361500916104</v>
-      </c>
-      <c r="R27" s="74">
-        <v>0</v>
-      </c>
-      <c r="S27" s="74">
-        <v>5000</v>
-      </c>
-      <c r="T27" s="79">
-        <v>25</v>
-      </c>
-      <c r="U27" s="76">
-        <v>3345.69</v>
-      </c>
-    </row>
-    <row r="28" ht="24" customHeight="1">
-      <c r="A28" s="69" t="s">
+      <c r="I44" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="68">
+        <v>32.710557101621021</v>
+      </c>
+      <c r="K44" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44" s="50">
+        <v>48997.143482518128</v>
+      </c>
+      <c r="M44" s="46">
+        <v>10.204676527283619</v>
+      </c>
+      <c r="N44" s="42">
+        <v>15285.584970218135</v>
+      </c>
+      <c r="O44" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="P44" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q44" s="68">
+        <v>33.2175992569743</v>
+      </c>
+      <c r="R44" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="S44" s="50">
+        <v>71278.324485615463</v>
+      </c>
+      <c r="T44" s="46">
+        <v>7.01475523742009</v>
+      </c>
+      <c r="U44" s="42">
+        <v>15052.26178845604</v>
+      </c>
+    </row>
+    <row r="46" ht="24" customHeight="1">
+      <c r="B46" s="57"/>
+      <c r="H46" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="I46" s="122"/>
+      <c r="J46" s="122"/>
+      <c r="K46" s="122"/>
+      <c r="L46" s="122"/>
+      <c r="M46" s="122"/>
+      <c r="N46" s="123"/>
+      <c r="O46" s="121"/>
+      <c r="P46" s="122"/>
+      <c r="Q46" s="122"/>
+      <c r="R46" s="122"/>
+      <c r="S46" s="122"/>
+      <c r="T46" s="122"/>
+      <c r="U46" s="123"/>
+    </row>
+    <row r="47" ht="24" customHeight="1">
+      <c r="B47" s="57"/>
+      <c r="H47" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K47" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N47" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O47" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P47" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q47" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="R47" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="S47" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="T47" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="U47" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" ht="24" customHeight="1">
+      <c r="A48" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="57"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="109">
+        <v>0.49617646224600087</v>
+      </c>
+      <c r="I48" s="83">
+        <v>0</v>
+      </c>
+      <c r="J48" s="84">
+        <v>8.35173307938059</v>
+      </c>
+      <c r="K48" s="82">
+        <v>0</v>
+      </c>
+      <c r="L48" s="82">
+        <v>4961.7646224600085</v>
+      </c>
+      <c r="M48" s="85">
+        <v>25.192650097542479</v>
+      </c>
+      <c r="N48" s="86">
+        <v>14966.953422949991</v>
+      </c>
+      <c r="O48" s="87"/>
+      <c r="P48" s="83"/>
+      <c r="Q48" s="84"/>
+      <c r="R48" s="82"/>
+      <c r="S48" s="82"/>
+      <c r="T48" s="85"/>
+      <c r="U48" s="86"/>
+    </row>
+    <row r="49" ht="24" customHeight="1">
+      <c r="A49" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="74">
-        <v>0</v>
-      </c>
-      <c r="F28" s="75" t="s">
+      <c r="B49" s="57"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="109">
+        <v>0.49617646224600087</v>
+      </c>
+      <c r="I49" s="83">
+        <v>0</v>
+      </c>
+      <c r="J49" s="84">
+        <v>8.35173307938059</v>
+      </c>
+      <c r="K49" s="82">
+        <v>0</v>
+      </c>
+      <c r="L49" s="82">
+        <v>4961.7646224600085</v>
+      </c>
+      <c r="M49" s="85">
+        <v>25.192650097542479</v>
+      </c>
+      <c r="N49" s="86">
+        <v>14966.953422949991</v>
+      </c>
+      <c r="O49" s="87"/>
+      <c r="P49" s="83"/>
+      <c r="Q49" s="84"/>
+      <c r="R49" s="82"/>
+      <c r="S49" s="82"/>
+      <c r="T49" s="85"/>
+      <c r="U49" s="86"/>
+    </row>
+    <row r="50" ht="24" customHeight="1">
+      <c r="A50" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="57"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="109">
+        <v>0.49617646224600087</v>
+      </c>
+      <c r="I50" s="83">
+        <v>0</v>
+      </c>
+      <c r="J50" s="84">
+        <v>16.703466158761181</v>
+      </c>
+      <c r="K50" s="82">
+        <v>0</v>
+      </c>
+      <c r="L50" s="82">
+        <v>9923.5292449200169</v>
+      </c>
+      <c r="M50" s="85">
+        <v>25.192650097542479</v>
+      </c>
+      <c r="N50" s="86">
+        <v>14966.953422949975</v>
+      </c>
+      <c r="O50" s="87"/>
+      <c r="P50" s="83"/>
+      <c r="Q50" s="84"/>
+      <c r="R50" s="82"/>
+      <c r="S50" s="82"/>
+      <c r="T50" s="85"/>
+      <c r="U50" s="86"/>
+    </row>
+    <row r="51" ht="24" customHeight="1">
+      <c r="B51" s="57"/>
+      <c r="H51" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="88">
-        <v>250000</v>
-      </c>
-      <c r="H28" s="76"/>
-      <c r="I28" s="116">
-        <v>0</v>
-      </c>
-      <c r="J28" s="78">
-        <v>18.145836637387756</v>
-      </c>
-      <c r="K28" s="74">
-        <v>0</v>
-      </c>
-      <c r="L28" s="74">
-        <v>20000</v>
-      </c>
-      <c r="M28" s="79">
-        <v>12.5</v>
-      </c>
-      <c r="N28" s="76">
-        <v>13777.264999999967</v>
-      </c>
-      <c r="O28" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="P28" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="78">
-        <v>74.723001832208</v>
-      </c>
-      <c r="R28" s="74">
-        <v>0</v>
-      </c>
-      <c r="S28" s="74">
-        <v>10000</v>
-      </c>
-      <c r="T28" s="79">
-        <v>25</v>
-      </c>
-      <c r="U28" s="76">
-        <v>3345.69</v>
-      </c>
-    </row>
-    <row r="29" ht="24" customHeight="1">
-      <c r="B29" s="27"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="50">
-        <v>0</v>
-      </c>
-      <c r="F29" s="41" t="s">
+      <c r="I51" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="41">
-        <v>500000</v>
-      </c>
-      <c r="H29" s="42"/>
-      <c r="I29" s="51" t="s">
+      <c r="J51" s="68">
+        <v>33.406932317522362</v>
+      </c>
+      <c r="K51" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="68">
-        <v>36.291673274775512</v>
-      </c>
-      <c r="K29" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="L29" s="50">
-        <v>40000</v>
-      </c>
-      <c r="M29" s="46">
-        <v>12.5</v>
-      </c>
-      <c r="N29" s="42">
-        <v>13777.265000000005</v>
-      </c>
-      <c r="O29" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="P29" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q29" s="68">
-        <v>149.446003664416</v>
-      </c>
-      <c r="R29" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="S29" s="50">
-        <v>20000</v>
-      </c>
-      <c r="T29" s="46">
-        <v>25</v>
-      </c>
-      <c r="U29" s="42">
-        <v>3345.69</v>
-      </c>
-    </row>
-    <row r="30" ht="24" customHeight="1" s="10" customFormat="1"/>
-    <row r="31" ht="48" customHeight="1" s="90" customFormat="1">
-      <c r="C31" s="54" t="s">
+      <c r="L51" s="50">
+        <v>19847.058489840034</v>
+      </c>
+      <c r="M51" s="46">
+        <v>25.192650097542533</v>
+      </c>
+      <c r="N51" s="42">
+        <v>14966.953422949975</v>
+      </c>
+      <c r="O51" s="44"/>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="68"/>
+      <c r="R51" s="50"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="42"/>
+    </row>
+    <row r="52" ht="24" customHeight="1" s="10" customFormat="1"/>
+    <row r="53" ht="48" customHeight="1" s="90" customFormat="1">
+      <c r="C53" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="133" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="133"/>
-      <c r="K31" s="133"/>
-      <c r="L31" s="133"/>
-      <c r="M31" s="133"/>
-      <c r="N31" s="133"/>
-      <c r="O31" s="133"/>
-      <c r="P31" s="133"/>
-      <c r="Q31" s="133"/>
-      <c r="R31" s="133"/>
-      <c r="S31" s="133"/>
-      <c r="T31" s="133"/>
-      <c r="U31" s="133"/>
-    </row>
-    <row r="32" ht="8.1" customHeight="1" s="90" customFormat="1">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="89"/>
-      <c r="U32" s="89"/>
-    </row>
-    <row r="33" ht="48" customHeight="1" s="72" customFormat="1">
-      <c r="A33" s="90"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="54" t="s">
+      <c r="D53" s="54"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="127" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" s="127"/>
+      <c r="H53" s="127"/>
+      <c r="I53" s="127"/>
+      <c r="J53" s="127"/>
+      <c r="K53" s="127"/>
+      <c r="L53" s="127"/>
+      <c r="M53" s="127"/>
+      <c r="N53" s="127"/>
+      <c r="O53" s="127"/>
+      <c r="P53" s="127"/>
+      <c r="Q53" s="127"/>
+      <c r="R53" s="127"/>
+      <c r="S53" s="127"/>
+      <c r="T53" s="127"/>
+      <c r="U53" s="127"/>
+    </row>
+    <row r="54" ht="8.1" customHeight="1" s="90" customFormat="1">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="89"/>
+      <c r="K54" s="89"/>
+      <c r="L54" s="89"/>
+      <c r="M54" s="89"/>
+      <c r="N54" s="89"/>
+      <c r="O54" s="89"/>
+      <c r="P54" s="89"/>
+      <c r="Q54" s="89"/>
+      <c r="R54" s="89"/>
+      <c r="S54" s="89"/>
+      <c r="T54" s="89"/>
+      <c r="U54" s="89"/>
+    </row>
+    <row r="55" ht="48" customHeight="1" s="72" customFormat="1">
+      <c r="A55" s="90"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="54"/>
-      <c r="F33" s="133" t="s">
+      <c r="D55" s="54"/>
+      <c r="F55" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="133"/>
-      <c r="M33" s="133"/>
-      <c r="N33" s="133"/>
-      <c r="O33" s="133"/>
-      <c r="P33" s="133"/>
-      <c r="Q33" s="133"/>
-      <c r="R33" s="133"/>
-      <c r="S33" s="133"/>
-      <c r="T33" s="133"/>
-      <c r="U33" s="133"/>
-      <c r="V33" s="90"/>
-    </row>
-    <row r="34" ht="8.1" customHeight="1" s="90" customFormat="1">
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="73"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="73"/>
-      <c r="U34" s="73"/>
-    </row>
-    <row r="35" ht="48" customHeight="1" s="90" customFormat="1">
-      <c r="C35" s="54" t="s">
+      <c r="G55" s="127"/>
+      <c r="H55" s="127"/>
+      <c r="I55" s="127"/>
+      <c r="J55" s="127"/>
+      <c r="K55" s="127"/>
+      <c r="L55" s="127"/>
+      <c r="M55" s="127"/>
+      <c r="N55" s="127"/>
+      <c r="O55" s="127"/>
+      <c r="P55" s="127"/>
+      <c r="Q55" s="127"/>
+      <c r="R55" s="127"/>
+      <c r="S55" s="127"/>
+      <c r="T55" s="127"/>
+      <c r="U55" s="127"/>
+      <c r="V55" s="90"/>
+    </row>
+    <row r="56" ht="8.1" customHeight="1" s="90" customFormat="1">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="73"/>
+      <c r="T56" s="73"/>
+      <c r="U56" s="73"/>
+    </row>
+    <row r="57" ht="48" customHeight="1" s="90" customFormat="1">
+      <c r="C57" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="133"/>
-      <c r="K35" s="133"/>
-      <c r="L35" s="133"/>
-      <c r="M35" s="133"/>
-      <c r="N35" s="133"/>
-      <c r="O35" s="133"/>
-      <c r="P35" s="133"/>
-      <c r="Q35" s="133"/>
-      <c r="R35" s="133"/>
-      <c r="S35" s="133"/>
-      <c r="T35" s="133"/>
-      <c r="U35" s="133"/>
-    </row>
-    <row r="36" ht="8.1" customHeight="1" s="90" customFormat="1">
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="73"/>
-      <c r="R36" s="73"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="73"/>
-      <c r="U36" s="73"/>
-    </row>
-    <row r="37" ht="48.95" customHeight="1" s="72" customFormat="1">
-      <c r="A37" s="90"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="54" t="s">
+      <c r="D57" s="54"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="127"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="127"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="127"/>
+      <c r="K57" s="127"/>
+      <c r="L57" s="127"/>
+      <c r="M57" s="127"/>
+      <c r="N57" s="127"/>
+      <c r="O57" s="127"/>
+      <c r="P57" s="127"/>
+      <c r="Q57" s="127"/>
+      <c r="R57" s="127"/>
+      <c r="S57" s="127"/>
+      <c r="T57" s="127"/>
+      <c r="U57" s="127"/>
+    </row>
+    <row r="58" ht="8.1" customHeight="1" s="90" customFormat="1">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="73"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="73"/>
+      <c r="T58" s="73"/>
+      <c r="U58" s="73"/>
+    </row>
+    <row r="59" ht="48.95" customHeight="1" s="72" customFormat="1">
+      <c r="A59" s="90"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="54"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="125"/>
-      <c r="K37" s="125"/>
-      <c r="L37" s="125"/>
-      <c r="M37" s="125"/>
-      <c r="N37" s="125"/>
-      <c r="O37" s="125"/>
-      <c r="P37" s="125"/>
-      <c r="Q37" s="125"/>
-      <c r="R37" s="125"/>
-      <c r="S37" s="125"/>
-      <c r="T37" s="125"/>
-      <c r="U37" s="125"/>
-      <c r="V37" s="90"/>
-    </row>
-    <row r="38" ht="8.1" customHeight="1" s="90" customFormat="1">
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="73"/>
-      <c r="N38" s="73"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="73"/>
-      <c r="T38" s="73"/>
-      <c r="U38" s="73"/>
-    </row>
-    <row r="39" ht="147" customHeight="1" s="90" customFormat="1">
-      <c r="C39" s="54" t="s">
+      <c r="D59" s="54"/>
+      <c r="F59" s="119"/>
+      <c r="G59" s="119"/>
+      <c r="H59" s="119"/>
+      <c r="I59" s="119"/>
+      <c r="J59" s="119"/>
+      <c r="K59" s="119"/>
+      <c r="L59" s="119"/>
+      <c r="M59" s="119"/>
+      <c r="N59" s="119"/>
+      <c r="O59" s="119"/>
+      <c r="P59" s="119"/>
+      <c r="Q59" s="119"/>
+      <c r="R59" s="119"/>
+      <c r="S59" s="119"/>
+      <c r="T59" s="119"/>
+      <c r="U59" s="119"/>
+      <c r="V59" s="90"/>
+    </row>
+    <row r="60" ht="8.1" customHeight="1" s="90" customFormat="1">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="73"/>
+      <c r="L60" s="73"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="73"/>
+      <c r="O60" s="73"/>
+      <c r="P60" s="73"/>
+      <c r="Q60" s="73"/>
+      <c r="R60" s="73"/>
+      <c r="S60" s="73"/>
+      <c r="T60" s="73"/>
+      <c r="U60" s="73"/>
+    </row>
+    <row r="61" ht="147" customHeight="1" s="90" customFormat="1">
+      <c r="C61" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="54"/>
-      <c r="F39" s="124" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" s="124"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="124"/>
-      <c r="J39" s="124"/>
-      <c r="K39" s="124"/>
-      <c r="L39" s="124"/>
-      <c r="M39" s="124"/>
-      <c r="N39" s="124"/>
-      <c r="O39" s="124"/>
-      <c r="P39" s="124"/>
-      <c r="Q39" s="124"/>
-      <c r="R39" s="124"/>
-      <c r="S39" s="124"/>
-      <c r="T39" s="124"/>
-      <c r="U39" s="124"/>
+      <c r="D61" s="54"/>
+      <c r="F61" s="118" t="s">
+        <v>90</v>
+      </c>
+      <c r="G61" s="118"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="118"/>
+      <c r="J61" s="118"/>
+      <c r="K61" s="118"/>
+      <c r="L61" s="118"/>
+      <c r="M61" s="118"/>
+      <c r="N61" s="118"/>
+      <c r="O61" s="118"/>
+      <c r="P61" s="118"/>
+      <c r="Q61" s="118"/>
+      <c r="R61" s="118"/>
+      <c r="S61" s="118"/>
+      <c r="T61" s="118"/>
+      <c r="U61" s="118"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="F39:U39"/>
-    <mergeCell ref="F31:U31"/>
+    <mergeCell ref="F61:U61"/>
+    <mergeCell ref="F53:U53"/>
     <mergeCell ref="H15:N15"/>
     <mergeCell ref="O7:U7"/>
-    <mergeCell ref="F33:U33"/>
-    <mergeCell ref="F35:U35"/>
-    <mergeCell ref="F37:U37"/>
+    <mergeCell ref="F55:U55"/>
+    <mergeCell ref="F57:U57"/>
+    <mergeCell ref="F59:U59"/>
     <mergeCell ref="O15:U15"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="R5:T5"/>
@@ -7617,8 +8365,14 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="O24:U24"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="O31:U31"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="O39:U39"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="O22:U22"/>
+    <mergeCell ref="H46:N46"/>
+    <mergeCell ref="O46:U46"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:U3 C5 C4:O4 Q4 S4:U4 U5 C6:U10 O14:U17 H15:N15 C20:U28">
     <cfRule type="expression" dxfId="0" priority="76">

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4FFE7DFA-B30C-4ED1-B48F-559D69B40A92}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8500BB96-3032-4FCB-894F-DBD3E3405DBA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="27360" windowHeight="15240" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="27360" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Proposal" sheetId="5" r:id="rId6"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Broadcast Proposal Gorilla Glue Q4 '19 - Q1 '20</t>
   </si>
@@ -247,7 +247,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/26/20</t>
+    <t>Created 02/27/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -298,7 +298,19 @@
     <t>A25+</t>
   </si>
   <si>
+    <t>OddSA2</t>
+  </si>
+  <si>
+    <t>EvenSA2</t>
+  </si>
+  <si>
     <t>A35-49</t>
+  </si>
+  <si>
+    <t>OddSA1</t>
+  </si>
+  <si>
+    <t>EvenSA1</t>
   </si>
   <si>
     <t>~80% Minimum TV HH Coverage</t>
@@ -1018,98 +1030,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -1192,6 +1113,7 @@
   <colors>
     <mruColors>
       <color rgb="FFF5F8F8"/>
+      <color rgb="FFF8F5F5"/>
       <color rgb="FF3D5261"/>
       <color rgb="FFECF0F3"/>
       <color rgb="FFE5EAED"/>
@@ -1684,7 +1606,7 @@
   </sheetPr>
   <dimension ref="A2:P61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="0" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0" tabSelected="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1713,7 +1635,7 @@
       <c r="K2" s="7"/>
       <c r="P2" s="8" t="str">
         <f>'PROPOSAL'!U2</f>
-        <v>Created 02/26/20</v>
+        <v>Created 02/27/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6342,11 +6264,6 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -6356,6 +6273,11 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -6377,7 +6299,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" hidden="1" width="5.125" customWidth="1" style="69"/>
+    <col min="1" max="1" hidden="1" width="5.75" customWidth="1" style="69"/>
     <col min="2" max="2" width="3" customWidth="1" style="69"/>
     <col min="3" max="3" width="11.375" customWidth="1" style="69"/>
     <col min="4" max="4" width="9" customWidth="1" style="69"/>
@@ -6887,7 +6809,7 @@
     </row>
     <row r="17" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="A17" s="71" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B17" s="57"/>
       <c r="C17" s="71"/>
@@ -6940,7 +6862,7 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="69" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B18" s="57"/>
       <c r="C18" s="69"/>
@@ -6993,7 +6915,7 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="69" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B19" s="57"/>
       <c r="C19" s="69"/>
@@ -7092,7 +7014,7 @@
     <row r="22" ht="24" customHeight="1">
       <c r="B22" s="57"/>
       <c r="H22" s="121" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I22" s="122"/>
       <c r="J22" s="122"/>
@@ -7100,13 +7022,6 @@
       <c r="L22" s="122"/>
       <c r="M22" s="122"/>
       <c r="N22" s="123"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="122"/>
-      <c r="S22" s="122"/>
-      <c r="T22" s="122"/>
-      <c r="U22" s="123"/>
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="B23" s="57"/>
@@ -7131,31 +7046,10 @@
       <c r="N23" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="O23" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="R23" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="S23" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T23" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="U23" s="43" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="69" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B24" s="57"/>
       <c r="C24" s="69"/>
@@ -7184,17 +7078,10 @@
       <c r="N24" s="86">
         <v>14966.953422949991</v>
       </c>
-      <c r="O24" s="87"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="85"/>
-      <c r="U24" s="86"/>
     </row>
     <row r="25" ht="24" customHeight="1">
       <c r="A25" s="69" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B25" s="57"/>
       <c r="C25" s="69"/>
@@ -7223,17 +7110,10 @@
       <c r="N25" s="86">
         <v>14966.953422949991</v>
       </c>
-      <c r="O25" s="87"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="85"/>
-      <c r="U25" s="86"/>
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="A26" s="69" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B26" s="57"/>
       <c r="C26" s="69"/>
@@ -7262,13 +7142,6 @@
       <c r="N26" s="86">
         <v>14966.953422949975</v>
       </c>
-      <c r="O26" s="87"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82"/>
-      <c r="T26" s="85"/>
-      <c r="U26" s="86"/>
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="B27" s="57"/>
@@ -7293,13 +7166,6 @@
       <c r="N27" s="42">
         <v>14966.953422949975</v>
       </c>
-      <c r="O27" s="44"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="42"/>
     </row>
     <row r="28" ht="24" customHeight="1" s="108" customFormat="1"/>
     <row r="29" ht="13.5" customHeight="1" s="71" customFormat="1">
@@ -7728,7 +7594,7 @@
     </row>
     <row r="41" ht="24" customHeight="1">
       <c r="A41" s="69" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B41" s="57"/>
       <c r="C41" s="69"/>
@@ -7781,7 +7647,7 @@
     </row>
     <row r="42" ht="24" customHeight="1">
       <c r="A42" s="69" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B42" s="57"/>
       <c r="C42" s="69"/>
@@ -7834,7 +7700,7 @@
     </row>
     <row r="43" ht="24" customHeight="1">
       <c r="A43" s="69" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B43" s="57"/>
       <c r="C43" s="69"/>
@@ -7933,7 +7799,7 @@
     <row r="46" ht="24" customHeight="1">
       <c r="B46" s="57"/>
       <c r="H46" s="121" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I46" s="122"/>
       <c r="J46" s="122"/>
@@ -7941,13 +7807,6 @@
       <c r="L46" s="122"/>
       <c r="M46" s="122"/>
       <c r="N46" s="123"/>
-      <c r="O46" s="121"/>
-      <c r="P46" s="122"/>
-      <c r="Q46" s="122"/>
-      <c r="R46" s="122"/>
-      <c r="S46" s="122"/>
-      <c r="T46" s="122"/>
-      <c r="U46" s="123"/>
     </row>
     <row r="47" ht="24" customHeight="1">
       <c r="B47" s="57"/>
@@ -7972,31 +7831,10 @@
       <c r="N47" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="O47" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P47" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q47" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="R47" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="S47" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T47" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="U47" s="43" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="48" ht="24" customHeight="1">
       <c r="A48" s="69" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B48" s="57"/>
       <c r="C48" s="69"/>
@@ -8025,17 +7863,10 @@
       <c r="N48" s="86">
         <v>14966.953422949991</v>
       </c>
-      <c r="O48" s="87"/>
-      <c r="P48" s="83"/>
-      <c r="Q48" s="84"/>
-      <c r="R48" s="82"/>
-      <c r="S48" s="82"/>
-      <c r="T48" s="85"/>
-      <c r="U48" s="86"/>
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="A49" s="69" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B49" s="57"/>
       <c r="C49" s="69"/>
@@ -8064,17 +7895,10 @@
       <c r="N49" s="86">
         <v>14966.953422949991</v>
       </c>
-      <c r="O49" s="87"/>
-      <c r="P49" s="83"/>
-      <c r="Q49" s="84"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="82"/>
-      <c r="T49" s="85"/>
-      <c r="U49" s="86"/>
     </row>
     <row r="50" ht="24" customHeight="1">
       <c r="A50" s="69" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B50" s="57"/>
       <c r="C50" s="69"/>
@@ -8103,13 +7927,6 @@
       <c r="N50" s="86">
         <v>14966.953422949975</v>
       </c>
-      <c r="O50" s="87"/>
-      <c r="P50" s="83"/>
-      <c r="Q50" s="84"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="82"/>
-      <c r="T50" s="85"/>
-      <c r="U50" s="86"/>
     </row>
     <row r="51" ht="24" customHeight="1">
       <c r="B51" s="57"/>
@@ -8134,13 +7951,6 @@
       <c r="N51" s="42">
         <v>14966.953422949975</v>
       </c>
-      <c r="O51" s="44"/>
-      <c r="P51" s="49"/>
-      <c r="Q51" s="68"/>
-      <c r="R51" s="50"/>
-      <c r="S51" s="50"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="42"/>
     </row>
     <row r="52" ht="24" customHeight="1" s="10" customFormat="1"/>
     <row r="53" ht="48" customHeight="1" s="90" customFormat="1">
@@ -8150,7 +7960,7 @@
       <c r="D53" s="54"/>
       <c r="E53" s="72"/>
       <c r="F53" s="127" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G53" s="127"/>
       <c r="H53" s="127"/>
@@ -8329,7 +8139,7 @@
       </c>
       <c r="D61" s="54"/>
       <c r="F61" s="118" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G61" s="118"/>
       <c r="H61" s="118"/>
@@ -8349,6 +8159,14 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="F61:U61"/>
     <mergeCell ref="F53:U53"/>
     <mergeCell ref="H15:N15"/>
@@ -8357,101 +8175,26 @@
     <mergeCell ref="F57:U57"/>
     <mergeCell ref="F59:U59"/>
     <mergeCell ref="O15:U15"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
     <mergeCell ref="I31:N31"/>
     <mergeCell ref="O31:U31"/>
     <mergeCell ref="H39:N39"/>
     <mergeCell ref="O39:U39"/>
     <mergeCell ref="H22:N22"/>
-    <mergeCell ref="O22:U22"/>
     <mergeCell ref="H46:N46"/>
-    <mergeCell ref="O46:U46"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:U3 C5 C4:O4 Q4 S4:U4 U5 C6:U10 O14:U17 H15:N15 C20:U28">
-    <cfRule type="expression" dxfId="0" priority="76">
+  <conditionalFormatting sqref="C1:U3 C5 C4:N4 P4 R4:U4 U5 C6:U1048576">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$A1="Even"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4">
-    <cfRule type="expression" dxfId="0" priority="64">
-      <formula>$A4="Even"</formula>
+  <conditionalFormatting sqref="H1:N1048576">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$A1="EvenSA1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="0" priority="72">
-      <formula>$A5="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="0" priority="71">
-      <formula>$A5="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="0" priority="70">
-      <formula>$A5="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="0" priority="69">
-      <formula>$A5="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="0" priority="68">
-      <formula>$A5="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="expression" dxfId="0" priority="66">
-      <formula>$A4="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="0" priority="63">
-      <formula>$A5="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="expression" dxfId="0" priority="62">
-      <formula>$A5="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:F1048576">
-    <cfRule type="expression" dxfId="0" priority="77">
-      <formula>$A41="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:U1048576">
-    <cfRule type="expression" dxfId="0" priority="81">
-      <formula>$A48="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:N13">
-    <cfRule type="expression" dxfId="0" priority="47">
-      <formula>$A13="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O13:U13">
-    <cfRule type="expression" dxfId="0" priority="50">
-      <formula>$A13="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:N14 H16:N17">
-    <cfRule type="expression" dxfId="0" priority="52">
-      <formula>$A14="Even"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="H1:U1048576">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$A12="Even"</formula>
+      <formula>$A1="EvenSA2"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8462,15 +8205,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000192CE90DA120240A67EE82BE1FBFF43" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623d129459d6fae29ac2c5d491c3782f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0e2beb7e-37df-4602-aab8-4f6673c75e9a" xmlns:ns4="eaec1813-26bf-4c98-9021-907af21e1945" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfd2e6b22ac1ad737273b5b960116aad" ns3:_="" ns4:_="">
     <xsd:import namespace="0e2beb7e-37df-4602-aab8-4f6673c75e9a"/>
@@ -8693,6 +8427,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -8700,14 +8443,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB68F43B-E0EF-42BE-BAC3-92E4E861A7D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53520415-44BC-4FFA-B7D1-C1B985B55107}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8722,6 +8457,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB68F43B-E0EF-42BE-BAC3-92E4E861A7D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8500BB96-3032-4FCB-894F-DBD3E3405DBA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A34D29D1-3AC8-4B30-B911-AC22546302CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="27360" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
@@ -6264,6 +6264,11 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -6273,11 +6278,6 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -8159,6 +8159,14 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="F61:U61"/>
+    <mergeCell ref="F53:U53"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="O7:U7"/>
+    <mergeCell ref="F55:U55"/>
+    <mergeCell ref="F57:U57"/>
+    <mergeCell ref="F59:U59"/>
+    <mergeCell ref="O15:U15"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="E5:G5"/>
@@ -8167,14 +8175,6 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="F61:U61"/>
-    <mergeCell ref="F53:U53"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="O7:U7"/>
-    <mergeCell ref="F55:U55"/>
-    <mergeCell ref="F57:U57"/>
-    <mergeCell ref="F59:U59"/>
-    <mergeCell ref="O15:U15"/>
     <mergeCell ref="I31:N31"/>
     <mergeCell ref="O31:U31"/>
     <mergeCell ref="H39:N39"/>
@@ -8205,6 +8205,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000192CE90DA120240A67EE82BE1FBFF43" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623d129459d6fae29ac2c5d491c3782f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0e2beb7e-37df-4602-aab8-4f6673c75e9a" xmlns:ns4="eaec1813-26bf-4c98-9021-907af21e1945" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfd2e6b22ac1ad737273b5b960116aad" ns3:_="" ns4:_="">
     <xsd:import namespace="0e2beb7e-37df-4602-aab8-4f6673c75e9a"/>
@@ -8427,15 +8436,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -8443,6 +8443,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB68F43B-E0EF-42BE-BAC3-92E4E861A7D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53520415-44BC-4FFA-B7D1-C1B985B55107}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8457,14 +8465,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB68F43B-E0EF-42BE-BAC3-92E4E861A7D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
@@ -247,7 +247,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/27/20</t>
+    <t>Created 02/29/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1635,7 +1635,7 @@
       <c r="K2" s="7"/>
       <c r="P2" s="8" t="str">
         <f>'PROPOSAL'!U2</f>
-        <v>Created 02/27/20</v>
+        <v>Created 02/29/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
@@ -247,7 +247,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/29/20</t>
+    <t>Created 03/02/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1635,7 +1635,7 @@
       <c r="K2" s="7"/>
       <c r="P2" s="8" t="str">
         <f>'PROPOSAL'!U2</f>
-        <v>Created 02/29/20</v>
+        <v>Created 03/02/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6691,13 +6691,13 @@
       <c r="G12" s="41">
         <v>500000</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="42"/>
+      <c r="I12" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="51">
+      <c r="J12" s="68">
         <v>33.16749585406302</v>
       </c>
-      <c r="J12" s="68"/>
       <c r="K12" s="50" t="s">
         <v>38</v>
       </c>
@@ -7476,13 +7476,13 @@
       <c r="G36" s="41">
         <v>500000</v>
       </c>
-      <c r="H36" s="42" t="s">
+      <c r="H36" s="42"/>
+      <c r="I36" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="51">
+      <c r="J36" s="68">
         <v>33.16749585406302</v>
       </c>
-      <c r="J36" s="68"/>
       <c r="K36" s="50" t="s">
         <v>38</v>
       </c>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
@@ -247,7 +247,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/02/20</t>
+    <t>Created 03/03/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1635,7 +1635,7 @@
       <c r="K2" s="7"/>
       <c r="P2" s="8" t="str">
         <f>'PROPOSAL'!U2</f>
-        <v>Created 03/02/20</v>
+        <v>Created 03/03/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
@@ -247,7 +247,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/03/20</t>
+    <t>Created 03/05/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1635,7 +1635,7 @@
       <c r="K2" s="7"/>
       <c r="P2" s="8" t="str">
         <f>'PROPOSAL'!U2</f>
-        <v>Created 03/03/20</v>
+        <v>Created 03/05/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A34D29D1-3AC8-4B30-B911-AC22546302CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{218018CF-6366-42FE-BA2A-5D89B5843371}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="27360" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
@@ -247,7 +247,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/05/20</t>
+    <t>Created 06/17/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -646,7 +646,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
@@ -1022,6 +1022,9 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1635,7 +1638,7 @@
       <c r="K2" s="7"/>
       <c r="P2" s="8" t="str">
         <f>'PROPOSAL'!U2</f>
-        <v>Created 03/05/20</v>
+        <v>Created 06/17/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -1679,7 +1682,7 @@
       <c r="P6" s="57"/>
     </row>
     <row r="7">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="128" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="121" t="s">
@@ -2003,7 +2006,7 @@
       <c r="P14" s="116"/>
     </row>
     <row r="16">
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="128" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="121" t="s">
@@ -2327,7 +2330,7 @@
       <c r="P23" s="116"/>
     </row>
     <row r="25">
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="128" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="121" t="s">
@@ -2651,7 +2654,7 @@
       <c r="P32" s="116"/>
     </row>
     <row r="34">
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="128" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="121" t="s">
@@ -2975,7 +2978,7 @@
       <c r="P41" s="116"/>
     </row>
     <row r="43">
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="128" t="s">
         <v>65</v>
       </c>
       <c r="C43" s="121" t="s">
@@ -3299,7 +3302,7 @@
       <c r="P50" s="116"/>
     </row>
     <row r="52">
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="128" t="s">
         <v>66</v>
       </c>
       <c r="C52" s="121" t="s">
@@ -6264,11 +6267,6 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -6278,6 +6276,11 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -6518,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="78">
-        <v>8.291873963515755</v>
+        <v>8.275</v>
       </c>
       <c r="K9" s="74">
         <v>0</v>
@@ -6530,7 +6533,7 @@
         <v>12.5</v>
       </c>
       <c r="N9" s="76">
-        <v>15074.999999999991</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O9" s="80">
         <v>0.5</v>
@@ -6539,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="78">
-        <v>37.361500916104</v>
+        <v>31.3</v>
       </c>
       <c r="R9" s="74">
         <v>0</v>
@@ -6551,7 +6554,7 @@
         <v>25</v>
       </c>
       <c r="U9" s="76">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1">
@@ -6579,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="78">
-        <v>8.291873963515755</v>
+        <v>8.275</v>
       </c>
       <c r="K10" s="74">
         <v>0</v>
@@ -6591,7 +6594,7 @@
         <v>12.5</v>
       </c>
       <c r="N10" s="76">
-        <v>15074.999999999991</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O10" s="80">
         <v>0.5</v>
@@ -6600,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="78">
-        <v>37.361500916104</v>
+        <v>31.3</v>
       </c>
       <c r="R10" s="74">
         <v>0</v>
@@ -6612,7 +6615,7 @@
         <v>25</v>
       </c>
       <c r="U10" s="76">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1">
@@ -6640,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="78">
-        <v>16.58374792703151</v>
+        <v>16.55</v>
       </c>
       <c r="K11" s="74">
         <v>0</v>
@@ -6652,7 +6655,7 @@
         <v>12.5</v>
       </c>
       <c r="N11" s="76">
-        <v>15075.000000000009</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O11" s="80">
         <v>0.5</v>
@@ -6661,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="78">
-        <v>74.723001832208</v>
+        <v>62.6</v>
       </c>
       <c r="R11" s="74">
         <v>0</v>
@@ -6673,7 +6676,7 @@
         <v>25</v>
       </c>
       <c r="U11" s="76">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
@@ -6696,7 +6699,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="68">
-        <v>33.16749585406302</v>
+        <v>33.1</v>
       </c>
       <c r="K12" s="50" t="s">
         <v>38</v>
@@ -6708,7 +6711,7 @@
         <v>12.5</v>
       </c>
       <c r="N12" s="42">
-        <v>15075.000000000009</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O12" s="44" t="s">
         <v>38</v>
@@ -6717,7 +6720,7 @@
         <v>38</v>
       </c>
       <c r="Q12" s="68">
-        <v>149.446003664416</v>
+        <v>125.2</v>
       </c>
       <c r="R12" s="50" t="s">
         <v>38</v>
@@ -6729,7 +6732,7 @@
         <v>25</v>
       </c>
       <c r="U12" s="42">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1" s="71" customFormat="1">
@@ -6818,46 +6821,46 @@
       <c r="F17" s="71"/>
       <c r="G17" s="71"/>
       <c r="H17" s="109">
-        <v>1.2249285870629532</v>
+        <v>1.2249285749999999</v>
       </c>
       <c r="I17" s="83">
         <v>0</v>
       </c>
       <c r="J17" s="84">
-        <v>8.1776392754052551</v>
+        <v>8.175</v>
       </c>
       <c r="K17" s="82">
         <v>0</v>
       </c>
       <c r="L17" s="82">
-        <v>12249.285870629532</v>
+        <v>12249.28575</v>
       </c>
       <c r="M17" s="85">
-        <v>10.204676527283638</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N17" s="86">
-        <v>15285.584970218115</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O17" s="87">
-        <v>1.7819581121403867</v>
+        <v>1.7819580999999998</v>
       </c>
       <c r="P17" s="83">
         <v>0</v>
       </c>
       <c r="Q17" s="84">
-        <v>8.3043998142435758</v>
+        <v>8.3</v>
       </c>
       <c r="R17" s="82">
         <v>0</v>
       </c>
       <c r="S17" s="82">
-        <v>17819.581121403866</v>
+        <v>17819.581</v>
       </c>
       <c r="T17" s="85">
-        <v>7.014755237420081</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="U17" s="86">
-        <v>15052.261788456031</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="18" ht="24" customHeight="1">
@@ -6871,46 +6874,46 @@
       <c r="F18" s="69"/>
       <c r="G18" s="69"/>
       <c r="H18" s="109">
-        <v>1.2249285870629532</v>
+        <v>1.2249285749999999</v>
       </c>
       <c r="I18" s="83">
         <v>0</v>
       </c>
       <c r="J18" s="84">
-        <v>8.1776392754052551</v>
+        <v>8.175</v>
       </c>
       <c r="K18" s="82">
         <v>0</v>
       </c>
       <c r="L18" s="82">
-        <v>12249.285870629532</v>
+        <v>12249.28575</v>
       </c>
       <c r="M18" s="85">
-        <v>10.204676527283638</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N18" s="86">
-        <v>15285.584970218115</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O18" s="87">
-        <v>1.7819581121403867</v>
+        <v>1.7819580999999998</v>
       </c>
       <c r="P18" s="83">
         <v>0</v>
       </c>
       <c r="Q18" s="84">
-        <v>8.3043998142435758</v>
+        <v>8.3</v>
       </c>
       <c r="R18" s="82">
         <v>0</v>
       </c>
       <c r="S18" s="82">
-        <v>17819.581121403866</v>
+        <v>17819.581</v>
       </c>
       <c r="T18" s="85">
-        <v>7.014755237420081</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="U18" s="86">
-        <v>15052.261788456031</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1">
@@ -6924,46 +6927,46 @@
       <c r="F19" s="69"/>
       <c r="G19" s="69"/>
       <c r="H19" s="109">
-        <v>1.2249285870629532</v>
+        <v>1.2249285749999999</v>
       </c>
       <c r="I19" s="83">
         <v>0</v>
       </c>
       <c r="J19" s="84">
-        <v>16.35527855081051</v>
+        <v>16.35</v>
       </c>
       <c r="K19" s="82">
         <v>0</v>
       </c>
       <c r="L19" s="82">
-        <v>24498.571741259064</v>
+        <v>24498.5715</v>
       </c>
       <c r="M19" s="85">
-        <v>10.204676527283597</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N19" s="86">
-        <v>15285.584970218135</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O19" s="87">
-        <v>1.7819581121403867</v>
+        <v>1.7819580999999998</v>
       </c>
       <c r="P19" s="83">
         <v>0</v>
       </c>
       <c r="Q19" s="84">
-        <v>16.608799628487152</v>
+        <v>16.6</v>
       </c>
       <c r="R19" s="82">
         <v>0</v>
       </c>
       <c r="S19" s="82">
-        <v>35639.162242807732</v>
+        <v>35639.162</v>
       </c>
       <c r="T19" s="85">
-        <v>7.0147552374201005</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="U19" s="86">
-        <v>15052.261788455995</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1" s="71" customFormat="1">
@@ -6975,19 +6978,19 @@
         <v>38</v>
       </c>
       <c r="J20" s="68">
-        <v>32.710557101621021</v>
+        <v>32.7</v>
       </c>
       <c r="K20" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L20" s="50">
-        <v>48997.143482518128</v>
+        <v>48997.143</v>
       </c>
       <c r="M20" s="46">
-        <v>10.204676527283619</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N20" s="42">
-        <v>15285.584970218135</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O20" s="44" t="s">
         <v>38</v>
@@ -6996,19 +6999,19 @@
         <v>38</v>
       </c>
       <c r="Q20" s="68">
-        <v>33.2175992569743</v>
+        <v>33.2</v>
       </c>
       <c r="R20" s="50" t="s">
         <v>38</v>
       </c>
       <c r="S20" s="50">
-        <v>71278.324485615463</v>
+        <v>71278.324</v>
       </c>
       <c r="T20" s="46">
-        <v>7.01475523742009</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="U20" s="42">
-        <v>15052.26178845604</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1">
@@ -7058,25 +7061,25 @@
       <c r="F24" s="69"/>
       <c r="G24" s="69"/>
       <c r="H24" s="109">
-        <v>0.49617646224600087</v>
+        <v>0.49617645000000005</v>
       </c>
       <c r="I24" s="83">
         <v>0</v>
       </c>
       <c r="J24" s="84">
-        <v>8.35173307938059</v>
+        <v>8.35</v>
       </c>
       <c r="K24" s="82">
         <v>0</v>
       </c>
       <c r="L24" s="82">
-        <v>4961.7646224600085</v>
+        <v>4961.7645</v>
       </c>
       <c r="M24" s="85">
-        <v>25.192650097542479</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="N24" s="86">
-        <v>14966.953422949991</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="25" ht="24" customHeight="1">
@@ -7090,25 +7093,25 @@
       <c r="F25" s="69"/>
       <c r="G25" s="69"/>
       <c r="H25" s="109">
-        <v>0.49617646224600087</v>
+        <v>0.49617645000000005</v>
       </c>
       <c r="I25" s="83">
         <v>0</v>
       </c>
       <c r="J25" s="84">
-        <v>8.35173307938059</v>
+        <v>8.35</v>
       </c>
       <c r="K25" s="82">
         <v>0</v>
       </c>
       <c r="L25" s="82">
-        <v>4961.7646224600085</v>
+        <v>4961.7645</v>
       </c>
       <c r="M25" s="85">
-        <v>25.192650097542479</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="N25" s="86">
-        <v>14966.953422949991</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="26" ht="24" customHeight="1">
@@ -7122,25 +7125,25 @@
       <c r="F26" s="69"/>
       <c r="G26" s="69"/>
       <c r="H26" s="109">
-        <v>0.49617646224600087</v>
+        <v>0.49617645000000005</v>
       </c>
       <c r="I26" s="83">
         <v>0</v>
       </c>
       <c r="J26" s="84">
-        <v>16.703466158761181</v>
+        <v>16.7</v>
       </c>
       <c r="K26" s="82">
         <v>0</v>
       </c>
       <c r="L26" s="82">
-        <v>9923.5292449200169</v>
+        <v>9923.529</v>
       </c>
       <c r="M26" s="85">
-        <v>25.192650097542479</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="N26" s="86">
-        <v>14966.953422949975</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="27" ht="24" customHeight="1">
@@ -7152,19 +7155,19 @@
         <v>38</v>
       </c>
       <c r="J27" s="68">
-        <v>33.406932317522362</v>
+        <v>33.4</v>
       </c>
       <c r="K27" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L27" s="50">
-        <v>19847.058489840034</v>
+        <v>19847.058</v>
       </c>
       <c r="M27" s="46">
-        <v>25.192650097542533</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="N27" s="42">
-        <v>14966.953422949975</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="28" ht="24" customHeight="1" s="108" customFormat="1"/>
@@ -7303,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="78">
-        <v>8.291873963515755</v>
+        <v>8.275</v>
       </c>
       <c r="K33" s="74">
         <v>0</v>
@@ -7315,7 +7318,7 @@
         <v>12.5</v>
       </c>
       <c r="N33" s="76">
-        <v>15074.999999999991</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O33" s="80">
         <v>0.5</v>
@@ -7324,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="78">
-        <v>37.361500916104</v>
+        <v>31.3</v>
       </c>
       <c r="R33" s="74">
         <v>0</v>
@@ -7336,7 +7339,7 @@
         <v>25</v>
       </c>
       <c r="U33" s="76">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="34" ht="24" customHeight="1">
@@ -7364,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="78">
-        <v>8.291873963515755</v>
+        <v>8.275</v>
       </c>
       <c r="K34" s="74">
         <v>0</v>
@@ -7376,7 +7379,7 @@
         <v>12.5</v>
       </c>
       <c r="N34" s="76">
-        <v>15074.999999999991</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O34" s="80">
         <v>0.5</v>
@@ -7385,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="78">
-        <v>37.361500916104</v>
+        <v>31.3</v>
       </c>
       <c r="R34" s="74">
         <v>0</v>
@@ -7397,7 +7400,7 @@
         <v>25</v>
       </c>
       <c r="U34" s="76">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="35" ht="24" customHeight="1">
@@ -7425,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="78">
-        <v>16.58374792703151</v>
+        <v>16.55</v>
       </c>
       <c r="K35" s="74">
         <v>0</v>
@@ -7437,7 +7440,7 @@
         <v>12.5</v>
       </c>
       <c r="N35" s="76">
-        <v>15075.000000000009</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O35" s="80">
         <v>0.5</v>
@@ -7446,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="78">
-        <v>74.723001832208</v>
+        <v>62.6</v>
       </c>
       <c r="R35" s="74">
         <v>0</v>
@@ -7458,7 +7461,7 @@
         <v>25</v>
       </c>
       <c r="U35" s="76">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="36" ht="24" customHeight="1">
@@ -7481,7 +7484,7 @@
         <v>38</v>
       </c>
       <c r="J36" s="68">
-        <v>33.16749585406302</v>
+        <v>33.1</v>
       </c>
       <c r="K36" s="50" t="s">
         <v>38</v>
@@ -7493,7 +7496,7 @@
         <v>12.5</v>
       </c>
       <c r="N36" s="42">
-        <v>15075.000000000009</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O36" s="44" t="s">
         <v>38</v>
@@ -7502,7 +7505,7 @@
         <v>38</v>
       </c>
       <c r="Q36" s="68">
-        <v>149.446003664416</v>
+        <v>125.2</v>
       </c>
       <c r="R36" s="50" t="s">
         <v>38</v>
@@ -7514,7 +7517,7 @@
         <v>25</v>
       </c>
       <c r="U36" s="42">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="37">
@@ -7603,46 +7606,46 @@
       <c r="F41" s="69"/>
       <c r="G41" s="69"/>
       <c r="H41" s="109">
-        <v>1.2249285870629532</v>
+        <v>1.2249285749999999</v>
       </c>
       <c r="I41" s="83">
         <v>0</v>
       </c>
       <c r="J41" s="84">
-        <v>8.1776392754052551</v>
+        <v>8.175</v>
       </c>
       <c r="K41" s="82">
         <v>0</v>
       </c>
       <c r="L41" s="82">
-        <v>12249.285870629532</v>
+        <v>12249.28575</v>
       </c>
       <c r="M41" s="85">
-        <v>10.204676527283638</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N41" s="86">
-        <v>15285.584970218115</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O41" s="87">
-        <v>1.7819581121403867</v>
+        <v>1.7819580999999998</v>
       </c>
       <c r="P41" s="83">
         <v>0</v>
       </c>
       <c r="Q41" s="84">
-        <v>8.3043998142435758</v>
+        <v>8.3</v>
       </c>
       <c r="R41" s="82">
         <v>0</v>
       </c>
       <c r="S41" s="82">
-        <v>17819.581121403866</v>
+        <v>17819.581</v>
       </c>
       <c r="T41" s="85">
-        <v>7.014755237420081</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="U41" s="86">
-        <v>15052.261788456031</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="42" ht="24" customHeight="1">
@@ -7656,46 +7659,46 @@
       <c r="F42" s="69"/>
       <c r="G42" s="69"/>
       <c r="H42" s="109">
-        <v>1.2249285870629532</v>
+        <v>1.2249285749999999</v>
       </c>
       <c r="I42" s="83">
         <v>0</v>
       </c>
       <c r="J42" s="84">
-        <v>8.1776392754052551</v>
+        <v>8.175</v>
       </c>
       <c r="K42" s="82">
         <v>0</v>
       </c>
       <c r="L42" s="82">
-        <v>12249.285870629532</v>
+        <v>12249.28575</v>
       </c>
       <c r="M42" s="85">
-        <v>10.204676527283638</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N42" s="86">
-        <v>15285.584970218115</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O42" s="87">
-        <v>1.7819581121403867</v>
+        <v>1.7819580999999998</v>
       </c>
       <c r="P42" s="83">
         <v>0</v>
       </c>
       <c r="Q42" s="84">
-        <v>8.3043998142435758</v>
+        <v>8.3</v>
       </c>
       <c r="R42" s="82">
         <v>0</v>
       </c>
       <c r="S42" s="82">
-        <v>17819.581121403866</v>
+        <v>17819.581</v>
       </c>
       <c r="T42" s="85">
-        <v>7.014755237420081</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="U42" s="86">
-        <v>15052.261788456031</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="43" ht="24" customHeight="1">
@@ -7709,46 +7712,46 @@
       <c r="F43" s="69"/>
       <c r="G43" s="69"/>
       <c r="H43" s="109">
-        <v>1.2249285870629532</v>
+        <v>1.2249285749999999</v>
       </c>
       <c r="I43" s="83">
         <v>0</v>
       </c>
       <c r="J43" s="84">
-        <v>16.35527855081051</v>
+        <v>16.35</v>
       </c>
       <c r="K43" s="82">
         <v>0</v>
       </c>
       <c r="L43" s="82">
-        <v>24498.571741259064</v>
+        <v>24498.5715</v>
       </c>
       <c r="M43" s="85">
-        <v>10.204676527283597</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N43" s="86">
-        <v>15285.584970218135</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O43" s="87">
-        <v>1.7819581121403867</v>
+        <v>1.7819580999999998</v>
       </c>
       <c r="P43" s="83">
         <v>0</v>
       </c>
       <c r="Q43" s="84">
-        <v>16.608799628487152</v>
+        <v>16.6</v>
       </c>
       <c r="R43" s="82">
         <v>0</v>
       </c>
       <c r="S43" s="82">
-        <v>35639.162242807732</v>
+        <v>35639.162</v>
       </c>
       <c r="T43" s="85">
-        <v>7.0147552374201005</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="U43" s="86">
-        <v>15052.261788455995</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="44" ht="24" customHeight="1">
@@ -7760,19 +7763,19 @@
         <v>38</v>
       </c>
       <c r="J44" s="68">
-        <v>32.710557101621021</v>
+        <v>32.7</v>
       </c>
       <c r="K44" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L44" s="50">
-        <v>48997.143482518128</v>
+        <v>48997.143</v>
       </c>
       <c r="M44" s="46">
-        <v>10.204676527283619</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N44" s="42">
-        <v>15285.584970218135</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O44" s="44" t="s">
         <v>38</v>
@@ -7781,19 +7784,19 @@
         <v>38</v>
       </c>
       <c r="Q44" s="68">
-        <v>33.2175992569743</v>
+        <v>33.2</v>
       </c>
       <c r="R44" s="50" t="s">
         <v>38</v>
       </c>
       <c r="S44" s="50">
-        <v>71278.324485615463</v>
+        <v>71278.324</v>
       </c>
       <c r="T44" s="46">
-        <v>7.01475523742009</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="U44" s="42">
-        <v>15052.26178845604</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="46" ht="24" customHeight="1">
@@ -7843,25 +7846,25 @@
       <c r="F48" s="69"/>
       <c r="G48" s="69"/>
       <c r="H48" s="109">
-        <v>0.49617646224600087</v>
+        <v>0.49617645000000005</v>
       </c>
       <c r="I48" s="83">
         <v>0</v>
       </c>
       <c r="J48" s="84">
-        <v>8.35173307938059</v>
+        <v>8.35</v>
       </c>
       <c r="K48" s="82">
         <v>0</v>
       </c>
       <c r="L48" s="82">
-        <v>4961.7646224600085</v>
+        <v>4961.7645</v>
       </c>
       <c r="M48" s="85">
-        <v>25.192650097542479</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="N48" s="86">
-        <v>14966.953422949991</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="49" ht="24" customHeight="1">
@@ -7875,25 +7878,25 @@
       <c r="F49" s="69"/>
       <c r="G49" s="69"/>
       <c r="H49" s="109">
-        <v>0.49617646224600087</v>
+        <v>0.49617645000000005</v>
       </c>
       <c r="I49" s="83">
         <v>0</v>
       </c>
       <c r="J49" s="84">
-        <v>8.35173307938059</v>
+        <v>8.35</v>
       </c>
       <c r="K49" s="82">
         <v>0</v>
       </c>
       <c r="L49" s="82">
-        <v>4961.7646224600085</v>
+        <v>4961.7645</v>
       </c>
       <c r="M49" s="85">
-        <v>25.192650097542479</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="N49" s="86">
-        <v>14966.953422949991</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="50" ht="24" customHeight="1">
@@ -7907,25 +7910,25 @@
       <c r="F50" s="69"/>
       <c r="G50" s="69"/>
       <c r="H50" s="109">
-        <v>0.49617646224600087</v>
+        <v>0.49617645000000005</v>
       </c>
       <c r="I50" s="83">
         <v>0</v>
       </c>
       <c r="J50" s="84">
-        <v>16.703466158761181</v>
+        <v>16.7</v>
       </c>
       <c r="K50" s="82">
         <v>0</v>
       </c>
       <c r="L50" s="82">
-        <v>9923.5292449200169</v>
+        <v>9923.529</v>
       </c>
       <c r="M50" s="85">
-        <v>25.192650097542479</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="N50" s="86">
-        <v>14966.953422949975</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="51" ht="24" customHeight="1">
@@ -7937,19 +7940,19 @@
         <v>38</v>
       </c>
       <c r="J51" s="68">
-        <v>33.406932317522362</v>
+        <v>33.4</v>
       </c>
       <c r="K51" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="50">
-        <v>19847.058489840034</v>
+        <v>19847.058</v>
       </c>
       <c r="M51" s="46">
-        <v>25.192650097542533</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="N51" s="42">
-        <v>14966.953422949975</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="52" ht="24" customHeight="1" s="10" customFormat="1"/>
@@ -8159,6 +8162,14 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="F61:U61"/>
     <mergeCell ref="F53:U53"/>
     <mergeCell ref="H15:N15"/>
@@ -8167,14 +8178,6 @@
     <mergeCell ref="F57:U57"/>
     <mergeCell ref="F59:U59"/>
     <mergeCell ref="O15:U15"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
     <mergeCell ref="I31:N31"/>
     <mergeCell ref="O31:U31"/>
     <mergeCell ref="H39:N39"/>
@@ -8205,15 +8208,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000192CE90DA120240A67EE82BE1FBFF43" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623d129459d6fae29ac2c5d491c3782f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0e2beb7e-37df-4602-aab8-4f6673c75e9a" xmlns:ns4="eaec1813-26bf-4c98-9021-907af21e1945" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfd2e6b22ac1ad737273b5b960116aad" ns3:_="" ns4:_="">
     <xsd:import namespace="0e2beb7e-37df-4602-aab8-4f6673c75e9a"/>
@@ -8436,6 +8430,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -8443,14 +8446,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB68F43B-E0EF-42BE-BAC3-92E4E861A7D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53520415-44BC-4FFA-B7D1-C1B985B55107}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8465,6 +8460,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB68F43B-E0EF-42BE-BAC3-92E4E861A7D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_SinglePlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{218018CF-6366-42FE-BA2A-5D89B5843371}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DA99B150-1A51-4C43-B164-FFBC06E7FD5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="27360" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
@@ -247,7 +247,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 06/17/20</t>
+    <t>Created 08/05/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -259,7 +259,7 @@
     <t>12/23/19 - 12/29/19</t>
   </si>
   <si>
-    <t>A21-24</t>
+    <t>A18+</t>
   </si>
   <si>
     <t>:30</t>
@@ -647,384 +647,384 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="129">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="2"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="7" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="7" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="15" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="15" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1033,35 +1033,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1638,7 +1610,7 @@
       <c r="K2" s="7"/>
       <c r="P2" s="8" t="str">
         <f>'PROPOSAL'!U2</f>
-        <v>Created 06/17/20</v>
+        <v>Created 08/05/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -1656,54 +1628,54 @@
     <row r="5" ht="18" customHeight="1" s="5" customFormat="1">
       <c r="B5" s="65" t="str">
         <f>'PROPOSAL'!K5</f>
-        <v>A21-24</v>
+        <v>A18+</v>
       </c>
       <c r="C5" s="65" t="str">
         <f>'PROPOSAL'!O5</f>
         <v>NTI</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
     </row>
     <row r="6" ht="24" customHeight="1">
       <c r="P6" s="57"/>
     </row>
     <row r="7">
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="122" t="s">
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="121" t="s">
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="124"/>
       <c r="P7" s="32"/>
     </row>
     <row r="8" ht="24" customHeight="1">
@@ -1839,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="97">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P10" s="97">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1">
@@ -2006,28 +1978,28 @@
       <c r="P14" s="116"/>
     </row>
     <row r="16">
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="122" t="s">
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="121" t="s">
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="122"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="124"/>
       <c r="P16" s="32"/>
     </row>
     <row r="17" ht="24" customHeight="1">
@@ -2163,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="97">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P19" s="97">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1">
@@ -2330,28 +2302,28 @@
       <c r="P23" s="116"/>
     </row>
     <row r="25">
-      <c r="B25" s="128" t="s">
+      <c r="B25" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="122" t="s">
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="121" t="s">
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="122"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="124"/>
       <c r="P25" s="32"/>
     </row>
     <row r="26" ht="24" customHeight="1">
@@ -2487,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="O28" s="97">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P28" s="97">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="29" ht="24" customHeight="1">
@@ -2654,28 +2626,28 @@
       <c r="P32" s="116"/>
     </row>
     <row r="34">
-      <c r="B34" s="128" t="s">
+      <c r="B34" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="121" t="s">
+      <c r="C34" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="122" t="s">
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="121" t="s">
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="122"/>
-      <c r="O34" s="123"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="123"/>
+      <c r="O34" s="124"/>
       <c r="P34" s="32"/>
     </row>
     <row r="35" ht="24" customHeight="1">
@@ -2811,10 +2783,10 @@
         <v>0</v>
       </c>
       <c r="O37" s="97">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P37" s="97">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="38" ht="24" customHeight="1">
@@ -2978,28 +2950,28 @@
       <c r="P41" s="116"/>
     </row>
     <row r="43">
-      <c r="B43" s="128" t="s">
+      <c r="B43" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="121" t="s">
+      <c r="C43" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="122" t="s">
+      <c r="D43" s="123"/>
+      <c r="E43" s="123"/>
+      <c r="F43" s="124"/>
+      <c r="G43" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122"/>
-      <c r="J43" s="123"/>
-      <c r="K43" s="121" t="s">
+      <c r="H43" s="123"/>
+      <c r="I43" s="123"/>
+      <c r="J43" s="124"/>
+      <c r="K43" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="L43" s="122"/>
-      <c r="M43" s="122"/>
-      <c r="N43" s="122"/>
-      <c r="O43" s="123"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="123"/>
+      <c r="N43" s="123"/>
+      <c r="O43" s="124"/>
       <c r="P43" s="32"/>
     </row>
     <row r="44" ht="24" customHeight="1">
@@ -3135,10 +3107,10 @@
         <v>0</v>
       </c>
       <c r="O46" s="97">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="P46" s="97">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="47" ht="24" customHeight="1">
@@ -3302,28 +3274,28 @@
       <c r="P50" s="116"/>
     </row>
     <row r="52">
-      <c r="B52" s="128" t="s">
+      <c r="B52" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="121" t="s">
+      <c r="C52" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="122"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="123"/>
-      <c r="G52" s="122" t="s">
+      <c r="D52" s="123"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="122"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="123"/>
-      <c r="K52" s="121" t="s">
+      <c r="H52" s="123"/>
+      <c r="I52" s="123"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="L52" s="122"/>
-      <c r="M52" s="122"/>
-      <c r="N52" s="122"/>
-      <c r="O52" s="123"/>
+      <c r="L52" s="123"/>
+      <c r="M52" s="123"/>
+      <c r="N52" s="123"/>
+      <c r="O52" s="124"/>
       <c r="P52" s="32"/>
     </row>
     <row r="53" ht="24" customHeight="1">
@@ -3459,10 +3431,10 @@
         <v>0</v>
       </c>
       <c r="O55" s="97">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="P55" s="97">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="56" ht="24" customHeight="1">
@@ -3804,24 +3776,24 @@
       <c r="D7" s="9"/>
       <c r="E7" s="23"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="124" t="s">
+      <c r="G7" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="33"/>
-      <c r="N7" s="124" t="s">
+      <c r="N7" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="126"/>
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="27"/>
@@ -4022,13 +3994,13 @@
         <f>SUM(J9:J10)</f>
         <v>27669</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="46" t="e">
         <f>E11/J11</f>
-        <v>3.6914958979363188</v>
-      </c>
-      <c r="L11" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" s="42" t="e">
         <f>E11/H11</f>
-        <v>4426.1035816256463</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="44" t="s">
@@ -4048,13 +4020,13 @@
         <f>SUM(R9:R10)</f>
         <v>8189.91</v>
       </c>
-      <c r="S11" s="46">
+      <c r="S11" s="46" t="e">
         <f>E11/R11</f>
-        <v>12.471443520136363</v>
-      </c>
-      <c r="T11" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T11" s="42" t="e">
         <f>E11/P11</f>
-        <v>12482.667819304488</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1">
@@ -4065,24 +4037,24 @@
       <c r="D13" s="9"/>
       <c r="E13" s="23"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="121" t="s">
+      <c r="G13" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="124"/>
       <c r="M13" s="33"/>
-      <c r="N13" s="121" t="s">
+      <c r="N13" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="124"/>
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="B14" s="38" t="s">
@@ -4279,13 +4251,13 @@
         <f>SUM(J15:J16)</f>
         <v>24004</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="46" t="e">
         <f>E17/J17</f>
-        <v>4.78253624395934</v>
-      </c>
-      <c r="L17" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L17" s="42" t="e">
         <f>E17/H17</f>
-        <v>5734.2609565072489</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="44" t="s">
@@ -4305,13 +4277,13 @@
         <f>SUM(R15:R16)</f>
         <v>7099.380000000001</v>
       </c>
-      <c r="S17" s="46">
+      <c r="S17" s="46" t="e">
         <f>E17/R17</f>
-        <v>16.170426149889142</v>
-      </c>
-      <c r="T17" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T17" s="42" t="e">
         <f>E17/P17</f>
-        <v>16184.979533424046</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1">
@@ -4322,24 +4294,24 @@
       <c r="D19" s="9"/>
       <c r="E19" s="23"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="121" t="s">
+      <c r="G19" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="124"/>
       <c r="M19" s="33"/>
-      <c r="N19" s="121" t="s">
+      <c r="N19" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="122"/>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="122"/>
-      <c r="R19" s="122"/>
-      <c r="S19" s="122"/>
-      <c r="T19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="124"/>
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="B20" s="38" t="s">
@@ -4609,25 +4581,25 @@
       <c r="B25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="126" t="s">
+      <c r="D25" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="126"/>
-      <c r="O25" s="126"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="126"/>
-      <c r="S25" s="126"/>
-      <c r="T25" s="126"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="127"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="127"/>
+      <c r="O25" s="127"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="127"/>
+      <c r="T25" s="127"/>
     </row>
     <row r="26" ht="8.1" customHeight="1">
       <c r="B26" s="4"/>
@@ -4653,25 +4625,25 @@
       <c r="B27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="126" t="s">
+      <c r="D27" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="126"/>
-      <c r="S27" s="126"/>
-      <c r="T27" s="126"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="127"/>
+      <c r="N27" s="127"/>
+      <c r="O27" s="127"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="127"/>
+      <c r="R27" s="127"/>
+      <c r="S27" s="127"/>
+      <c r="T27" s="127"/>
     </row>
     <row r="28" ht="8.1" customHeight="1">
       <c r="B28" s="4"/>
@@ -4697,25 +4669,25 @@
       <c r="B29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="126" t="s">
+      <c r="D29" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="126"/>
-      <c r="N29" s="126"/>
-      <c r="O29" s="126"/>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="126"/>
-      <c r="S29" s="126"/>
-      <c r="T29" s="126"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="127"/>
+      <c r="O29" s="127"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="127"/>
+      <c r="T29" s="127"/>
     </row>
     <row r="30" ht="8.1" customHeight="1">
       <c r="B30" s="4"/>
@@ -4741,25 +4713,25 @@
       <c r="B31" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="126" t="s">
+      <c r="D31" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="126"/>
-      <c r="N31" s="126"/>
-      <c r="O31" s="126"/>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="126"/>
-      <c r="S31" s="126"/>
-      <c r="T31" s="126"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="127"/>
+      <c r="N31" s="127"/>
+      <c r="O31" s="127"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="127"/>
+      <c r="T31" s="127"/>
     </row>
     <row r="32" ht="8.1" customHeight="1">
       <c r="B32" s="4"/>
@@ -4785,25 +4757,25 @@
       <c r="B33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="126" t="s">
+      <c r="D33" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="126"/>
-      <c r="N33" s="126"/>
-      <c r="O33" s="126"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="126"/>
-      <c r="S33" s="126"/>
-      <c r="T33" s="126"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="127"/>
+      <c r="L33" s="127"/>
+      <c r="M33" s="127"/>
+      <c r="N33" s="127"/>
+      <c r="O33" s="127"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="127"/>
+      <c r="R33" s="127"/>
+      <c r="S33" s="127"/>
+      <c r="T33" s="127"/>
     </row>
     <row r="34" ht="8.1" customHeight="1">
       <c r="B34" s="4"/>
@@ -4829,25 +4801,25 @@
       <c r="B35" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="120" t="s">
+      <c r="D35" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="120"/>
-      <c r="N35" s="120"/>
-      <c r="O35" s="120"/>
-      <c r="P35" s="120"/>
-      <c r="Q35" s="120"/>
-      <c r="R35" s="120"/>
-      <c r="S35" s="120"/>
-      <c r="T35" s="120"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="121"/>
+      <c r="K35" s="121"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="121"/>
+      <c r="N35" s="121"/>
+      <c r="O35" s="121"/>
+      <c r="P35" s="121"/>
+      <c r="Q35" s="121"/>
+      <c r="R35" s="121"/>
+      <c r="S35" s="121"/>
+      <c r="T35" s="121"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -4990,24 +4962,24 @@
       <c r="D7" s="9"/>
       <c r="E7" s="23"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="124" t="s">
+      <c r="G7" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="33"/>
-      <c r="N7" s="124" t="s">
+      <c r="N7" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="126"/>
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="27"/>
@@ -5249,24 +5221,24 @@
       <c r="D13" s="9"/>
       <c r="E13" s="23"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="121" t="s">
+      <c r="G13" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="124"/>
       <c r="M13" s="33"/>
-      <c r="N13" s="121" t="s">
+      <c r="N13" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="124"/>
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="B14" s="38" t="s">
@@ -5504,24 +5476,24 @@
       <c r="D19" s="9"/>
       <c r="E19" s="23"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="121" t="s">
+      <c r="G19" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="124"/>
       <c r="M19" s="33"/>
-      <c r="N19" s="121" t="s">
+      <c r="N19" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="122"/>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="122"/>
-      <c r="R19" s="122"/>
-      <c r="S19" s="122"/>
-      <c r="T19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="124"/>
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="B20" s="38" t="s">
@@ -5759,24 +5731,24 @@
       <c r="D25" s="9"/>
       <c r="E25" s="23"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="121" t="s">
+      <c r="G25" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="124"/>
       <c r="M25" s="33"/>
-      <c r="N25" s="121" t="s">
+      <c r="N25" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="124"/>
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="B26" s="38" t="s">
@@ -6014,26 +5986,26 @@
       <c r="B31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="117" t="s">
+      <c r="C31" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="117"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="117"/>
-      <c r="O31" s="117"/>
-      <c r="P31" s="117"/>
-      <c r="Q31" s="117"/>
-      <c r="R31" s="117"/>
-      <c r="S31" s="117"/>
-      <c r="T31" s="117"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="118"/>
+      <c r="N31" s="118"/>
+      <c r="O31" s="118"/>
+      <c r="P31" s="118"/>
+      <c r="Q31" s="118"/>
+      <c r="R31" s="118"/>
+      <c r="S31" s="118"/>
+      <c r="T31" s="118"/>
     </row>
     <row r="32" ht="8.1" customHeight="1">
       <c r="B32" s="4"/>
@@ -6060,26 +6032,26 @@
       <c r="B33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="117" t="s">
+      <c r="C33" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="117"/>
-      <c r="M33" s="117"/>
-      <c r="N33" s="117"/>
-      <c r="O33" s="117"/>
-      <c r="P33" s="117"/>
-      <c r="Q33" s="117"/>
-      <c r="R33" s="117"/>
-      <c r="S33" s="117"/>
-      <c r="T33" s="117"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="118"/>
+      <c r="O33" s="118"/>
+      <c r="P33" s="118"/>
+      <c r="Q33" s="118"/>
+      <c r="R33" s="118"/>
+      <c r="S33" s="118"/>
+      <c r="T33" s="118"/>
     </row>
     <row r="34" ht="8.1" customHeight="1">
       <c r="B34" s="4"/>
@@ -6106,26 +6078,26 @@
       <c r="B35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="117" t="s">
+      <c r="C35" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="117"/>
-      <c r="Q35" s="117"/>
-      <c r="R35" s="117"/>
-      <c r="S35" s="117"/>
-      <c r="T35" s="117"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="118"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="118"/>
+      <c r="P35" s="118"/>
+      <c r="Q35" s="118"/>
+      <c r="R35" s="118"/>
+      <c r="S35" s="118"/>
+      <c r="T35" s="118"/>
     </row>
     <row r="36" ht="8.1" customHeight="1">
       <c r="B36" s="4"/>
@@ -6152,26 +6124,26 @@
       <c r="B37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="117" t="s">
+      <c r="C37" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="117"/>
-      <c r="L37" s="117"/>
-      <c r="M37" s="117"/>
-      <c r="N37" s="117"/>
-      <c r="O37" s="117"/>
-      <c r="P37" s="117"/>
-      <c r="Q37" s="117"/>
-      <c r="R37" s="117"/>
-      <c r="S37" s="117"/>
-      <c r="T37" s="117"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="118"/>
+      <c r="N37" s="118"/>
+      <c r="O37" s="118"/>
+      <c r="P37" s="118"/>
+      <c r="Q37" s="118"/>
+      <c r="R37" s="118"/>
+      <c r="S37" s="118"/>
+      <c r="T37" s="118"/>
     </row>
     <row r="38" ht="8.1" customHeight="1">
       <c r="B38" s="4"/>
@@ -6198,26 +6170,26 @@
       <c r="B39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="117" t="s">
+      <c r="C39" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="117"/>
-      <c r="K39" s="117"/>
-      <c r="L39" s="117"/>
-      <c r="M39" s="117"/>
-      <c r="N39" s="117"/>
-      <c r="O39" s="117"/>
-      <c r="P39" s="117"/>
-      <c r="Q39" s="117"/>
-      <c r="R39" s="117"/>
-      <c r="S39" s="117"/>
-      <c r="T39" s="117"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="118"/>
+      <c r="K39" s="118"/>
+      <c r="L39" s="118"/>
+      <c r="M39" s="118"/>
+      <c r="N39" s="118"/>
+      <c r="O39" s="118"/>
+      <c r="P39" s="118"/>
+      <c r="Q39" s="118"/>
+      <c r="R39" s="118"/>
+      <c r="S39" s="118"/>
+      <c r="T39" s="118"/>
     </row>
     <row r="40" ht="8.1" customHeight="1">
       <c r="B40" s="4"/>
@@ -6244,29 +6216,34 @@
       <c r="B41" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="118" t="s">
+      <c r="C41" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="118"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="118"/>
-      <c r="K41" s="118"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="118"/>
-      <c r="N41" s="118"/>
-      <c r="O41" s="118"/>
-      <c r="P41" s="118"/>
-      <c r="Q41" s="118"/>
-      <c r="R41" s="118"/>
-      <c r="S41" s="118"/>
-      <c r="T41" s="118"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="119"/>
+      <c r="I41" s="119"/>
+      <c r="J41" s="119"/>
+      <c r="K41" s="119"/>
+      <c r="L41" s="119"/>
+      <c r="M41" s="119"/>
+      <c r="N41" s="119"/>
+      <c r="O41" s="119"/>
+      <c r="P41" s="119"/>
+      <c r="Q41" s="119"/>
+      <c r="R41" s="119"/>
+      <c r="S41" s="119"/>
+      <c r="T41" s="119"/>
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -6276,11 +6253,6 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -6296,7 +6268,7 @@
   </sheetPr>
   <dimension ref="A2:V61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScalePageLayoutView="90" workbookViewId="0" tabSelected="1">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScalePageLayoutView="90" workbookViewId="0" tabSelected="0">
       <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
@@ -6359,36 +6331,36 @@
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" s="5" customFormat="1">
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117" t="s">
+      <c r="D5" s="118"/>
+      <c r="E5" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="70"/>
-      <c r="I5" s="117" t="s">
+      <c r="I5" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117" t="s">
+      <c r="J5" s="118"/>
+      <c r="K5" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117" t="s">
+      <c r="L5" s="118"/>
+      <c r="M5" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="N5" s="117"/>
+      <c r="N5" s="118"/>
       <c r="O5" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
       <c r="U5" s="5" t="s">
         <v>19</v>
       </c>
@@ -6417,23 +6389,23 @@
       <c r="F7" s="9"/>
       <c r="G7" s="23"/>
       <c r="H7" s="58"/>
-      <c r="I7" s="121" t="s">
+      <c r="I7" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="121" t="s">
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="123"/>
+      <c r="U7" s="124"/>
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="69" t="s">
@@ -6508,44 +6480,44 @@
         <v>81</v>
       </c>
       <c r="E9" s="74">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="F9" s="75">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G9" s="88">
         <v>125000</v>
       </c>
       <c r="H9" s="76"/>
       <c r="I9" s="110">
-        <v>0</v>
+        <v>2.8456219814462562</v>
       </c>
       <c r="J9" s="78">
-        <v>8.275</v>
+        <v>3.5570274768078205</v>
       </c>
       <c r="K9" s="74">
-        <v>0</v>
+        <v>3445.3057708871661</v>
       </c>
       <c r="L9" s="74">
-        <v>10000</v>
+        <v>4306.6322136089575</v>
       </c>
       <c r="M9" s="79">
-        <v>12.5</v>
+        <v>29.024999999999988</v>
       </c>
       <c r="N9" s="76">
-        <v>15105.740181268882</v>
+        <v>35141.702113636369</v>
       </c>
       <c r="O9" s="80">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="P9" s="77">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q9" s="78">
-        <v>31.3</v>
+        <v>2</v>
       </c>
       <c r="R9" s="74">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="S9" s="74">
         <v>5000</v>
@@ -6554,7 +6526,7 @@
         <v>25</v>
       </c>
       <c r="U9" s="76">
-        <v>3993.6102236421725</v>
+        <v>62500</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1">
@@ -6569,44 +6541,44 @@
         <v>81</v>
       </c>
       <c r="E10" s="74">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="F10" s="75">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G10" s="88">
         <v>125000</v>
       </c>
       <c r="H10" s="76"/>
       <c r="I10" s="110">
-        <v>0</v>
+        <v>2.9031345522487735</v>
       </c>
       <c r="J10" s="78">
-        <v>8.275</v>
+        <v>3.6289181903109666</v>
       </c>
       <c r="K10" s="74">
-        <v>0</v>
+        <v>3514.93848857645</v>
       </c>
       <c r="L10" s="74">
-        <v>10000</v>
+        <v>4393.6731107205624</v>
       </c>
       <c r="M10" s="79">
-        <v>12.5</v>
+        <v>28.450000000000017</v>
       </c>
       <c r="N10" s="76">
-        <v>15105.740181268882</v>
+        <v>34445.5271363636</v>
       </c>
       <c r="O10" s="80">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="P10" s="77">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q10" s="78">
-        <v>31.3</v>
+        <v>2</v>
       </c>
       <c r="R10" s="74">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="S10" s="74">
         <v>5000</v>
@@ -6615,7 +6587,7 @@
         <v>25</v>
       </c>
       <c r="U10" s="76">
-        <v>3993.6102236421725</v>
+        <v>62500</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1">
@@ -6630,44 +6602,44 @@
         <v>81</v>
       </c>
       <c r="E11" s="74">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F11" s="75">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G11" s="88">
         <v>250000</v>
       </c>
       <c r="H11" s="76"/>
       <c r="I11" s="110">
-        <v>0</v>
+        <v>2.8456219814462562</v>
       </c>
       <c r="J11" s="78">
-        <v>16.55</v>
+        <v>7.114054953615641</v>
       </c>
       <c r="K11" s="74">
-        <v>0</v>
+        <v>3445.3057708871661</v>
       </c>
       <c r="L11" s="74">
-        <v>20000</v>
+        <v>8613.264427217915</v>
       </c>
       <c r="M11" s="79">
-        <v>12.5</v>
+        <v>29.024999999999988</v>
       </c>
       <c r="N11" s="76">
-        <v>15105.740181268882</v>
+        <v>35141.702113636369</v>
       </c>
       <c r="O11" s="80">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="P11" s="77">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="Q11" s="78">
-        <v>62.6</v>
+        <v>4.1</v>
       </c>
       <c r="R11" s="74">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="S11" s="74">
         <v>10000</v>
@@ -6676,7 +6648,7 @@
         <v>25</v>
       </c>
       <c r="U11" s="76">
-        <v>3993.6102236421725</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
@@ -6686,7 +6658,7 @@
         <v>84</v>
       </c>
       <c r="E12" s="50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12" s="41" t="s">
         <v>38</v>
@@ -6699,19 +6671,19 @@
         <v>38</v>
       </c>
       <c r="J12" s="68">
-        <v>33.1</v>
+        <v>14.300000620734428</v>
       </c>
       <c r="K12" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L12" s="50">
-        <v>40000</v>
+        <v>17313.569751547435</v>
       </c>
       <c r="M12" s="46">
-        <v>12.5</v>
+        <v>28.879081967213175</v>
       </c>
       <c r="N12" s="42">
-        <v>15105.740181268882</v>
+        <v>34965.0334472728</v>
       </c>
       <c r="O12" s="44" t="s">
         <v>38</v>
@@ -6720,7 +6692,7 @@
         <v>38</v>
       </c>
       <c r="Q12" s="68">
-        <v>125.2</v>
+        <v>8.1</v>
       </c>
       <c r="R12" s="50" t="s">
         <v>38</v>
@@ -6732,7 +6704,7 @@
         <v>25</v>
       </c>
       <c r="U12" s="42">
-        <v>3993.6102236421725</v>
+        <v>61728.395061728392</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1" s="71" customFormat="1">
@@ -6746,24 +6718,24 @@
     </row>
     <row r="15" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="B15" s="57"/>
-      <c r="H15" s="121" t="s">
+      <c r="H15" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="121" t="s">
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="122"/>
-      <c r="R15" s="122"/>
-      <c r="S15" s="122"/>
-      <c r="T15" s="122"/>
-      <c r="U15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="123"/>
+      <c r="U15" s="124"/>
     </row>
     <row r="16" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="B16" s="57"/>
@@ -6821,46 +6793,46 @@
       <c r="F17" s="71"/>
       <c r="G17" s="71"/>
       <c r="H17" s="109">
-        <v>1.2249285749999999</v>
+        <v>0.52199999999999991</v>
       </c>
       <c r="I17" s="83">
-        <v>0</v>
+        <v>1.2075290857040377</v>
       </c>
       <c r="J17" s="84">
-        <v>8.175</v>
+        <v>1.5094113571300472</v>
       </c>
       <c r="K17" s="82">
-        <v>0</v>
+        <v>1798.4496124031005</v>
       </c>
       <c r="L17" s="82">
-        <v>12249.28575</v>
+        <v>2248.0620155038755</v>
       </c>
       <c r="M17" s="85">
-        <v>10.204676627778074</v>
+        <v>55.603448275861965</v>
       </c>
       <c r="N17" s="86">
-        <v>15290.519877675841</v>
+        <v>82813.74021040315</v>
       </c>
       <c r="O17" s="87">
-        <v>1.7819580999999998</v>
+        <v>1.12</v>
       </c>
       <c r="P17" s="83">
-        <v>0</v>
+        <v>1.7937959355753677</v>
       </c>
       <c r="Q17" s="84">
-        <v>8.3</v>
+        <v>2.2422449194692096</v>
       </c>
       <c r="R17" s="82">
-        <v>0</v>
+        <v>3858.7424633936266</v>
       </c>
       <c r="S17" s="82">
-        <v>17819.581</v>
+        <v>4823.4280792420332</v>
       </c>
       <c r="T17" s="85">
-        <v>7.014755285211252</v>
+        <v>25.915178571428587</v>
       </c>
       <c r="U17" s="86">
-        <v>15060.240963855422</v>
+        <v>55747.701294642837</v>
       </c>
     </row>
     <row r="18" ht="24" customHeight="1">
@@ -6874,46 +6846,46 @@
       <c r="F18" s="69"/>
       <c r="G18" s="69"/>
       <c r="H18" s="109">
-        <v>1.2249285749999999</v>
+        <v>0.465</v>
       </c>
       <c r="I18" s="83">
-        <v>0</v>
+        <v>1.0974127659832242</v>
       </c>
       <c r="J18" s="84">
-        <v>8.175</v>
+        <v>1.3717659574790304</v>
       </c>
       <c r="K18" s="82">
-        <v>0</v>
+        <v>1634.4463971880493</v>
       </c>
       <c r="L18" s="82">
-        <v>12249.28575</v>
+        <v>2043.0579964850617</v>
       </c>
       <c r="M18" s="85">
-        <v>10.204676627778074</v>
+        <v>61.182795698924771</v>
       </c>
       <c r="N18" s="86">
-        <v>15290.519877675841</v>
+        <v>91123.416001458012</v>
       </c>
       <c r="O18" s="87">
-        <v>1.7819580999999998</v>
+        <v>1.113</v>
       </c>
       <c r="P18" s="83">
-        <v>0</v>
+        <v>1.8186123457341676</v>
       </c>
       <c r="Q18" s="84">
-        <v>8.3</v>
+        <v>2.2732654321677095</v>
       </c>
       <c r="R18" s="82">
-        <v>0</v>
+        <v>3912.1265377855889</v>
       </c>
       <c r="S18" s="82">
-        <v>17819.581</v>
+        <v>4890.1581722319861</v>
       </c>
       <c r="T18" s="85">
-        <v>7.014755285211252</v>
+        <v>25.561545372866103</v>
       </c>
       <c r="U18" s="86">
-        <v>15060.240963855422</v>
+        <v>54986.9796246381</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1">
@@ -6927,46 +6899,46 @@
       <c r="F19" s="69"/>
       <c r="G19" s="69"/>
       <c r="H19" s="109">
-        <v>1.2249285749999999</v>
+        <v>0.52199999999999991</v>
       </c>
       <c r="I19" s="83">
-        <v>0</v>
+        <v>1.2075290857040377</v>
       </c>
       <c r="J19" s="84">
-        <v>16.35</v>
+        <v>3.0188227142600943</v>
       </c>
       <c r="K19" s="82">
-        <v>0</v>
+        <v>1798.4496124031005</v>
       </c>
       <c r="L19" s="82">
-        <v>24498.5715</v>
+        <v>4496.124031007751</v>
       </c>
       <c r="M19" s="85">
-        <v>10.204676627778074</v>
+        <v>55.603448275862085</v>
       </c>
       <c r="N19" s="86">
-        <v>15290.519877675841</v>
+        <v>82813.740210403412</v>
       </c>
       <c r="O19" s="87">
-        <v>1.7819580999999998</v>
+        <v>1.12</v>
       </c>
       <c r="P19" s="83">
-        <v>0</v>
+        <v>1.7937959355753677</v>
       </c>
       <c r="Q19" s="84">
-        <v>16.6</v>
+        <v>4.4844898389384191</v>
       </c>
       <c r="R19" s="82">
-        <v>0</v>
+        <v>3858.7424633936266</v>
       </c>
       <c r="S19" s="82">
-        <v>35639.162</v>
+        <v>9646.8561584840663</v>
       </c>
       <c r="T19" s="85">
-        <v>7.014755285211252</v>
+        <v>25.915178571428587</v>
       </c>
       <c r="U19" s="86">
-        <v>15060.240963855422</v>
+        <v>55747.701294642837</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1" s="71" customFormat="1">
@@ -6978,19 +6950,19 @@
         <v>38</v>
       </c>
       <c r="J20" s="68">
-        <v>32.7</v>
+        <v>5.9000000288691723</v>
       </c>
       <c r="K20" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L20" s="50">
-        <v>48997.143</v>
+        <v>8787.2440429966882</v>
       </c>
       <c r="M20" s="46">
-        <v>10.204676627778074</v>
+        <v>56.900661635600414</v>
       </c>
       <c r="N20" s="42">
-        <v>15290.519877675841</v>
+        <v>84745.762297196648</v>
       </c>
       <c r="O20" s="44" t="s">
         <v>38</v>
@@ -6999,32 +6971,32 @@
         <v>38</v>
       </c>
       <c r="Q20" s="68">
-        <v>33.2</v>
+        <v>9.0000001905753386</v>
       </c>
       <c r="R20" s="50" t="s">
         <v>38</v>
       </c>
       <c r="S20" s="50">
-        <v>71278.324</v>
+        <v>19360.442409958086</v>
       </c>
       <c r="T20" s="46">
-        <v>7.014755285211252</v>
+        <v>25.825856114880079</v>
       </c>
       <c r="U20" s="42">
-        <v>15060.240963855422</v>
+        <v>55555.5543791646</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="B22" s="57"/>
-      <c r="H22" s="121" t="s">
+      <c r="H22" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="124"/>
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="B23" s="57"/>
@@ -7061,25 +7033,25 @@
       <c r="F24" s="69"/>
       <c r="G24" s="69"/>
       <c r="H24" s="109">
-        <v>0.49617645000000005</v>
+        <v>0.24500000000000005</v>
       </c>
       <c r="I24" s="83">
-        <v>0</v>
+        <v>1.4119747951400865</v>
       </c>
       <c r="J24" s="84">
-        <v>8.35</v>
+        <v>1.7649684939251082</v>
       </c>
       <c r="K24" s="82">
-        <v>0</v>
+        <v>844.09991386735578</v>
       </c>
       <c r="L24" s="82">
-        <v>4961.7645</v>
+        <v>1055.1248923341948</v>
       </c>
       <c r="M24" s="85">
-        <v>25.192650719315679</v>
+        <v>118.46938775510256</v>
       </c>
       <c r="N24" s="86">
-        <v>14970.05988023952</v>
+        <v>70822.7939650145</v>
       </c>
     </row>
     <row r="25" ht="24" customHeight="1">
@@ -7093,25 +7065,25 @@
       <c r="F25" s="69"/>
       <c r="G25" s="69"/>
       <c r="H25" s="109">
-        <v>0.49617645000000005</v>
+        <v>0.23200000000000004</v>
       </c>
       <c r="I25" s="83">
-        <v>0</v>
+        <v>1.3640767369196678</v>
       </c>
       <c r="J25" s="84">
-        <v>8.35</v>
+        <v>1.7050959211495846</v>
       </c>
       <c r="K25" s="82">
-        <v>0</v>
+        <v>815.46572934973642</v>
       </c>
       <c r="L25" s="82">
-        <v>4961.7645</v>
+        <v>1019.3321616871706</v>
       </c>
       <c r="M25" s="85">
-        <v>25.192650719315679</v>
+        <v>122.62931034482763</v>
       </c>
       <c r="N25" s="86">
-        <v>14970.05988023952</v>
+        <v>73309.6586822662</v>
       </c>
     </row>
     <row r="26" ht="24" customHeight="1">
@@ -7125,25 +7097,25 @@
       <c r="F26" s="69"/>
       <c r="G26" s="69"/>
       <c r="H26" s="109">
-        <v>0.49617645000000005</v>
+        <v>0.24500000000000005</v>
       </c>
       <c r="I26" s="83">
-        <v>0</v>
+        <v>1.4119747951400865</v>
       </c>
       <c r="J26" s="84">
-        <v>16.7</v>
+        <v>3.5299369878502165</v>
       </c>
       <c r="K26" s="82">
-        <v>0</v>
+        <v>844.09991386735578</v>
       </c>
       <c r="L26" s="82">
-        <v>9923.529</v>
+        <v>2110.2497846683896</v>
       </c>
       <c r="M26" s="85">
-        <v>25.192650719315679</v>
+        <v>118.469387755102</v>
       </c>
       <c r="N26" s="86">
-        <v>14970.05988023952</v>
+        <v>70822.7939650145</v>
       </c>
     </row>
     <row r="27" ht="24" customHeight="1">
@@ -7155,19 +7127,19 @@
         <v>38</v>
       </c>
       <c r="J27" s="68">
-        <v>33.4</v>
+        <v>7.0000014029249087</v>
       </c>
       <c r="K27" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L27" s="50">
-        <v>19847.058</v>
+        <v>4184.7068386897554</v>
       </c>
       <c r="M27" s="46">
-        <v>25.192650719315679</v>
+        <v>119.48268284345362</v>
       </c>
       <c r="N27" s="42">
-        <v>14970.05988023952</v>
+        <v>71428.557113013987</v>
       </c>
     </row>
     <row r="28" ht="24" customHeight="1" s="108" customFormat="1"/>
@@ -7202,23 +7174,23 @@
       <c r="F31" s="9"/>
       <c r="G31" s="23"/>
       <c r="H31" s="58"/>
-      <c r="I31" s="121" t="s">
+      <c r="I31" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="121" t="s">
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123"/>
+      <c r="N31" s="124"/>
+      <c r="O31" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="122"/>
-      <c r="T31" s="122"/>
-      <c r="U31" s="123"/>
+      <c r="P31" s="123"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="123"/>
+      <c r="T31" s="123"/>
+      <c r="U31" s="124"/>
     </row>
     <row r="32" ht="24" customHeight="1">
       <c r="A32" s="69" t="s">
@@ -7293,44 +7265,44 @@
         <v>81</v>
       </c>
       <c r="E33" s="74">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="F33" s="75">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G33" s="88">
         <v>125000</v>
       </c>
       <c r="H33" s="76"/>
       <c r="I33" s="110">
-        <v>0</v>
+        <v>2.8456219814462562</v>
       </c>
       <c r="J33" s="78">
-        <v>8.275</v>
+        <v>3.5570274768078205</v>
       </c>
       <c r="K33" s="74">
-        <v>0</v>
+        <v>3445.3057708871661</v>
       </c>
       <c r="L33" s="74">
-        <v>10000</v>
+        <v>4306.6322136089575</v>
       </c>
       <c r="M33" s="79">
-        <v>12.5</v>
+        <v>29.024999999999988</v>
       </c>
       <c r="N33" s="76">
-        <v>15105.740181268882</v>
+        <v>35141.702113636369</v>
       </c>
       <c r="O33" s="80">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="P33" s="77">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q33" s="78">
-        <v>31.3</v>
+        <v>2</v>
       </c>
       <c r="R33" s="74">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="S33" s="74">
         <v>5000</v>
@@ -7339,7 +7311,7 @@
         <v>25</v>
       </c>
       <c r="U33" s="76">
-        <v>3993.6102236421725</v>
+        <v>62500</v>
       </c>
     </row>
     <row r="34" ht="24" customHeight="1">
@@ -7354,44 +7326,44 @@
         <v>81</v>
       </c>
       <c r="E34" s="74">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="F34" s="75">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G34" s="88">
         <v>125000</v>
       </c>
       <c r="H34" s="76"/>
       <c r="I34" s="110">
-        <v>0</v>
+        <v>2.9031345522487735</v>
       </c>
       <c r="J34" s="78">
-        <v>8.275</v>
+        <v>3.6289181903109666</v>
       </c>
       <c r="K34" s="74">
-        <v>0</v>
+        <v>3514.93848857645</v>
       </c>
       <c r="L34" s="74">
-        <v>10000</v>
+        <v>4393.6731107205624</v>
       </c>
       <c r="M34" s="79">
-        <v>12.5</v>
+        <v>28.450000000000017</v>
       </c>
       <c r="N34" s="76">
-        <v>15105.740181268882</v>
+        <v>34445.5271363636</v>
       </c>
       <c r="O34" s="80">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="P34" s="77">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q34" s="78">
-        <v>31.3</v>
+        <v>2</v>
       </c>
       <c r="R34" s="74">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="S34" s="74">
         <v>5000</v>
@@ -7400,7 +7372,7 @@
         <v>25</v>
       </c>
       <c r="U34" s="76">
-        <v>3993.6102236421725</v>
+        <v>62500</v>
       </c>
     </row>
     <row r="35" ht="24" customHeight="1">
@@ -7415,44 +7387,44 @@
         <v>81</v>
       </c>
       <c r="E35" s="74">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F35" s="75">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G35" s="88">
         <v>250000</v>
       </c>
       <c r="H35" s="76"/>
       <c r="I35" s="110">
-        <v>0</v>
+        <v>2.8456219814462562</v>
       </c>
       <c r="J35" s="78">
-        <v>16.55</v>
+        <v>7.114054953615641</v>
       </c>
       <c r="K35" s="74">
-        <v>0</v>
+        <v>3445.3057708871661</v>
       </c>
       <c r="L35" s="74">
-        <v>20000</v>
+        <v>8613.264427217915</v>
       </c>
       <c r="M35" s="79">
-        <v>12.5</v>
+        <v>29.024999999999988</v>
       </c>
       <c r="N35" s="76">
-        <v>15105.740181268882</v>
+        <v>35141.702113636369</v>
       </c>
       <c r="O35" s="80">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="P35" s="77">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="Q35" s="78">
-        <v>62.6</v>
+        <v>4.1</v>
       </c>
       <c r="R35" s="74">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="S35" s="74">
         <v>10000</v>
@@ -7461,7 +7433,7 @@
         <v>25</v>
       </c>
       <c r="U35" s="76">
-        <v>3993.6102236421725</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="36" ht="24" customHeight="1">
@@ -7471,7 +7443,7 @@
         <v>84</v>
       </c>
       <c r="E36" s="50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F36" s="41" t="s">
         <v>38</v>
@@ -7484,19 +7456,19 @@
         <v>38</v>
       </c>
       <c r="J36" s="68">
-        <v>33.1</v>
+        <v>14.300000620734428</v>
       </c>
       <c r="K36" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L36" s="50">
-        <v>40000</v>
+        <v>17313.569751547435</v>
       </c>
       <c r="M36" s="46">
-        <v>12.5</v>
+        <v>28.879081967213175</v>
       </c>
       <c r="N36" s="42">
-        <v>15105.740181268882</v>
+        <v>34965.0334472728</v>
       </c>
       <c r="O36" s="44" t="s">
         <v>38</v>
@@ -7505,7 +7477,7 @@
         <v>38</v>
       </c>
       <c r="Q36" s="68">
-        <v>125.2</v>
+        <v>8.1</v>
       </c>
       <c r="R36" s="50" t="s">
         <v>38</v>
@@ -7517,7 +7489,7 @@
         <v>25</v>
       </c>
       <c r="U36" s="42">
-        <v>3993.6102236421725</v>
+        <v>61728.395061728392</v>
       </c>
     </row>
     <row r="37">
@@ -7531,24 +7503,24 @@
     </row>
     <row r="39" ht="24" customHeight="1">
       <c r="B39" s="57"/>
-      <c r="H39" s="121" t="s">
+      <c r="H39" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="I39" s="122"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="122"/>
-      <c r="M39" s="122"/>
-      <c r="N39" s="123"/>
-      <c r="O39" s="121" t="s">
+      <c r="I39" s="123"/>
+      <c r="J39" s="123"/>
+      <c r="K39" s="123"/>
+      <c r="L39" s="123"/>
+      <c r="M39" s="123"/>
+      <c r="N39" s="124"/>
+      <c r="O39" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="P39" s="122"/>
-      <c r="Q39" s="122"/>
-      <c r="R39" s="122"/>
-      <c r="S39" s="122"/>
-      <c r="T39" s="122"/>
-      <c r="U39" s="123"/>
+      <c r="P39" s="123"/>
+      <c r="Q39" s="123"/>
+      <c r="R39" s="123"/>
+      <c r="S39" s="123"/>
+      <c r="T39" s="123"/>
+      <c r="U39" s="124"/>
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="B40" s="57"/>
@@ -7606,46 +7578,46 @@
       <c r="F41" s="69"/>
       <c r="G41" s="69"/>
       <c r="H41" s="109">
-        <v>1.2249285749999999</v>
+        <v>0.52199999999999991</v>
       </c>
       <c r="I41" s="83">
-        <v>0</v>
+        <v>1.2075290857040377</v>
       </c>
       <c r="J41" s="84">
-        <v>8.175</v>
+        <v>1.5094113571300472</v>
       </c>
       <c r="K41" s="82">
-        <v>0</v>
+        <v>1798.4496124031005</v>
       </c>
       <c r="L41" s="82">
-        <v>12249.28575</v>
+        <v>2248.0620155038755</v>
       </c>
       <c r="M41" s="85">
-        <v>10.204676627778074</v>
+        <v>55.603448275861965</v>
       </c>
       <c r="N41" s="86">
-        <v>15290.519877675841</v>
+        <v>82813.74021040315</v>
       </c>
       <c r="O41" s="87">
-        <v>1.7819580999999998</v>
+        <v>1.12</v>
       </c>
       <c r="P41" s="83">
-        <v>0</v>
+        <v>1.7937959355753677</v>
       </c>
       <c r="Q41" s="84">
-        <v>8.3</v>
+        <v>2.2422449194692096</v>
       </c>
       <c r="R41" s="82">
-        <v>0</v>
+        <v>3858.7424633936266</v>
       </c>
       <c r="S41" s="82">
-        <v>17819.581</v>
+        <v>4823.4280792420332</v>
       </c>
       <c r="T41" s="85">
-        <v>7.014755285211252</v>
+        <v>25.915178571428587</v>
       </c>
       <c r="U41" s="86">
-        <v>15060.240963855422</v>
+        <v>55747.701294642837</v>
       </c>
     </row>
     <row r="42" ht="24" customHeight="1">
@@ -7659,46 +7631,46 @@
       <c r="F42" s="69"/>
       <c r="G42" s="69"/>
       <c r="H42" s="109">
-        <v>1.2249285749999999</v>
+        <v>0.465</v>
       </c>
       <c r="I42" s="83">
-        <v>0</v>
+        <v>1.0974127659832242</v>
       </c>
       <c r="J42" s="84">
-        <v>8.175</v>
+        <v>1.3717659574790304</v>
       </c>
       <c r="K42" s="82">
-        <v>0</v>
+        <v>1634.4463971880493</v>
       </c>
       <c r="L42" s="82">
-        <v>12249.28575</v>
+        <v>2043.0579964850617</v>
       </c>
       <c r="M42" s="85">
-        <v>10.204676627778074</v>
+        <v>61.182795698924771</v>
       </c>
       <c r="N42" s="86">
-        <v>15290.519877675841</v>
+        <v>91123.416001458012</v>
       </c>
       <c r="O42" s="87">
-        <v>1.7819580999999998</v>
+        <v>1.113</v>
       </c>
       <c r="P42" s="83">
-        <v>0</v>
+        <v>1.8186123457341676</v>
       </c>
       <c r="Q42" s="84">
-        <v>8.3</v>
+        <v>2.2732654321677095</v>
       </c>
       <c r="R42" s="82">
-        <v>0</v>
+        <v>3912.1265377855889</v>
       </c>
       <c r="S42" s="82">
-        <v>17819.581</v>
+        <v>4890.1581722319861</v>
       </c>
       <c r="T42" s="85">
-        <v>7.014755285211252</v>
+        <v>25.561545372866103</v>
       </c>
       <c r="U42" s="86">
-        <v>15060.240963855422</v>
+        <v>54986.9796246381</v>
       </c>
     </row>
     <row r="43" ht="24" customHeight="1">
@@ -7712,46 +7684,46 @@
       <c r="F43" s="69"/>
       <c r="G43" s="69"/>
       <c r="H43" s="109">
-        <v>1.2249285749999999</v>
+        <v>0.52199999999999991</v>
       </c>
       <c r="I43" s="83">
-        <v>0</v>
+        <v>1.2075290857040377</v>
       </c>
       <c r="J43" s="84">
-        <v>16.35</v>
+        <v>3.0188227142600943</v>
       </c>
       <c r="K43" s="82">
-        <v>0</v>
+        <v>1798.4496124031005</v>
       </c>
       <c r="L43" s="82">
-        <v>24498.5715</v>
+        <v>4496.124031007751</v>
       </c>
       <c r="M43" s="85">
-        <v>10.204676627778074</v>
+        <v>55.603448275862085</v>
       </c>
       <c r="N43" s="86">
-        <v>15290.519877675841</v>
+        <v>82813.740210403412</v>
       </c>
       <c r="O43" s="87">
-        <v>1.7819580999999998</v>
+        <v>1.12</v>
       </c>
       <c r="P43" s="83">
-        <v>0</v>
+        <v>1.7937959355753677</v>
       </c>
       <c r="Q43" s="84">
-        <v>16.6</v>
+        <v>4.4844898389384191</v>
       </c>
       <c r="R43" s="82">
-        <v>0</v>
+        <v>3858.7424633936266</v>
       </c>
       <c r="S43" s="82">
-        <v>35639.162</v>
+        <v>9646.8561584840663</v>
       </c>
       <c r="T43" s="85">
-        <v>7.014755285211252</v>
+        <v>25.915178571428587</v>
       </c>
       <c r="U43" s="86">
-        <v>15060.240963855422</v>
+        <v>55747.701294642837</v>
       </c>
     </row>
     <row r="44" ht="24" customHeight="1">
@@ -7763,19 +7735,19 @@
         <v>38</v>
       </c>
       <c r="J44" s="68">
-        <v>32.7</v>
+        <v>5.9000000288691723</v>
       </c>
       <c r="K44" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L44" s="50">
-        <v>48997.143</v>
+        <v>8787.2440429966882</v>
       </c>
       <c r="M44" s="46">
-        <v>10.204676627778074</v>
+        <v>56.900661635600414</v>
       </c>
       <c r="N44" s="42">
-        <v>15290.519877675841</v>
+        <v>84745.762297196648</v>
       </c>
       <c r="O44" s="44" t="s">
         <v>38</v>
@@ -7784,32 +7756,32 @@
         <v>38</v>
       </c>
       <c r="Q44" s="68">
-        <v>33.2</v>
+        <v>9.0000001905753386</v>
       </c>
       <c r="R44" s="50" t="s">
         <v>38</v>
       </c>
       <c r="S44" s="50">
-        <v>71278.324</v>
+        <v>19360.442409958086</v>
       </c>
       <c r="T44" s="46">
-        <v>7.014755285211252</v>
+        <v>25.825856114880079</v>
       </c>
       <c r="U44" s="42">
-        <v>15060.240963855422</v>
+        <v>55555.5543791646</v>
       </c>
     </row>
     <row r="46" ht="24" customHeight="1">
       <c r="B46" s="57"/>
-      <c r="H46" s="121" t="s">
+      <c r="H46" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="122"/>
-      <c r="J46" s="122"/>
-      <c r="K46" s="122"/>
-      <c r="L46" s="122"/>
-      <c r="M46" s="122"/>
-      <c r="N46" s="123"/>
+      <c r="I46" s="123"/>
+      <c r="J46" s="123"/>
+      <c r="K46" s="123"/>
+      <c r="L46" s="123"/>
+      <c r="M46" s="123"/>
+      <c r="N46" s="124"/>
     </row>
     <row r="47" ht="24" customHeight="1">
       <c r="B47" s="57"/>
@@ -7846,25 +7818,25 @@
       <c r="F48" s="69"/>
       <c r="G48" s="69"/>
       <c r="H48" s="109">
-        <v>0.49617645000000005</v>
+        <v>0.24500000000000005</v>
       </c>
       <c r="I48" s="83">
-        <v>0</v>
+        <v>1.4119747951400865</v>
       </c>
       <c r="J48" s="84">
-        <v>8.35</v>
+        <v>1.7649684939251082</v>
       </c>
       <c r="K48" s="82">
-        <v>0</v>
+        <v>844.09991386735578</v>
       </c>
       <c r="L48" s="82">
-        <v>4961.7645</v>
+        <v>1055.1248923341948</v>
       </c>
       <c r="M48" s="85">
-        <v>25.192650719315679</v>
+        <v>118.46938775510256</v>
       </c>
       <c r="N48" s="86">
-        <v>14970.05988023952</v>
+        <v>70822.7939650145</v>
       </c>
     </row>
     <row r="49" ht="24" customHeight="1">
@@ -7878,25 +7850,25 @@
       <c r="F49" s="69"/>
       <c r="G49" s="69"/>
       <c r="H49" s="109">
-        <v>0.49617645000000005</v>
+        <v>0.23200000000000004</v>
       </c>
       <c r="I49" s="83">
-        <v>0</v>
+        <v>1.3640767369196678</v>
       </c>
       <c r="J49" s="84">
-        <v>8.35</v>
+        <v>1.7050959211495846</v>
       </c>
       <c r="K49" s="82">
-        <v>0</v>
+        <v>815.46572934973642</v>
       </c>
       <c r="L49" s="82">
-        <v>4961.7645</v>
+        <v>1019.3321616871706</v>
       </c>
       <c r="M49" s="85">
-        <v>25.192650719315679</v>
+        <v>122.62931034482763</v>
       </c>
       <c r="N49" s="86">
-        <v>14970.05988023952</v>
+        <v>73309.6586822662</v>
       </c>
     </row>
     <row r="50" ht="24" customHeight="1">
@@ -7910,25 +7882,25 @@
       <c r="F50" s="69"/>
       <c r="G50" s="69"/>
       <c r="H50" s="109">
-        <v>0.49617645000000005</v>
+        <v>0.24500000000000005</v>
       </c>
       <c r="I50" s="83">
-        <v>0</v>
+        <v>1.4119747951400865</v>
       </c>
       <c r="J50" s="84">
-        <v>16.7</v>
+        <v>3.5299369878502165</v>
       </c>
       <c r="K50" s="82">
-        <v>0</v>
+        <v>844.09991386735578</v>
       </c>
       <c r="L50" s="82">
-        <v>9923.529</v>
+        <v>2110.2497846683896</v>
       </c>
       <c r="M50" s="85">
-        <v>25.192650719315679</v>
+        <v>118.469387755102</v>
       </c>
       <c r="N50" s="86">
-        <v>14970.05988023952</v>
+        <v>70822.7939650145</v>
       </c>
     </row>
     <row r="51" ht="24" customHeight="1">
@@ -7940,19 +7912,19 @@
         <v>38</v>
       </c>
       <c r="J51" s="68">
-        <v>33.4</v>
+        <v>7.0000014029249087</v>
       </c>
       <c r="K51" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="50">
-        <v>19847.058</v>
+        <v>4184.7068386897554</v>
       </c>
       <c r="M51" s="46">
-        <v>25.192650719315679</v>
+        <v>119.48268284345362</v>
       </c>
       <c r="N51" s="42">
-        <v>14970.05988023952</v>
+        <v>71428.557113013987</v>
       </c>
     </row>
     <row r="52" ht="24" customHeight="1" s="10" customFormat="1"/>
@@ -7962,24 +7934,24 @@
       </c>
       <c r="D53" s="54"/>
       <c r="E53" s="72"/>
-      <c r="F53" s="127" t="s">
+      <c r="F53" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="G53" s="127"/>
-      <c r="H53" s="127"/>
-      <c r="I53" s="127"/>
-      <c r="J53" s="127"/>
-      <c r="K53" s="127"/>
-      <c r="L53" s="127"/>
-      <c r="M53" s="127"/>
-      <c r="N53" s="127"/>
-      <c r="O53" s="127"/>
-      <c r="P53" s="127"/>
-      <c r="Q53" s="127"/>
-      <c r="R53" s="127"/>
-      <c r="S53" s="127"/>
-      <c r="T53" s="127"/>
-      <c r="U53" s="127"/>
+      <c r="G53" s="128"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="128"/>
+      <c r="J53" s="128"/>
+      <c r="K53" s="128"/>
+      <c r="L53" s="128"/>
+      <c r="M53" s="128"/>
+      <c r="N53" s="128"/>
+      <c r="O53" s="128"/>
+      <c r="P53" s="128"/>
+      <c r="Q53" s="128"/>
+      <c r="R53" s="128"/>
+      <c r="S53" s="128"/>
+      <c r="T53" s="128"/>
+      <c r="U53" s="128"/>
     </row>
     <row r="54" ht="8.1" customHeight="1" s="90" customFormat="1">
       <c r="C54" s="4"/>
@@ -8008,24 +7980,24 @@
         <v>22</v>
       </c>
       <c r="D55" s="54"/>
-      <c r="F55" s="127" t="s">
+      <c r="F55" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="127"/>
-      <c r="H55" s="127"/>
-      <c r="I55" s="127"/>
-      <c r="J55" s="127"/>
-      <c r="K55" s="127"/>
-      <c r="L55" s="127"/>
-      <c r="M55" s="127"/>
-      <c r="N55" s="127"/>
-      <c r="O55" s="127"/>
-      <c r="P55" s="127"/>
-      <c r="Q55" s="127"/>
-      <c r="R55" s="127"/>
-      <c r="S55" s="127"/>
-      <c r="T55" s="127"/>
-      <c r="U55" s="127"/>
+      <c r="G55" s="128"/>
+      <c r="H55" s="128"/>
+      <c r="I55" s="128"/>
+      <c r="J55" s="128"/>
+      <c r="K55" s="128"/>
+      <c r="L55" s="128"/>
+      <c r="M55" s="128"/>
+      <c r="N55" s="128"/>
+      <c r="O55" s="128"/>
+      <c r="P55" s="128"/>
+      <c r="Q55" s="128"/>
+      <c r="R55" s="128"/>
+      <c r="S55" s="128"/>
+      <c r="T55" s="128"/>
+      <c r="U55" s="128"/>
       <c r="V55" s="90"/>
     </row>
     <row r="56" ht="8.1" customHeight="1" s="90" customFormat="1">
@@ -8054,22 +8026,22 @@
       </c>
       <c r="D57" s="54"/>
       <c r="E57" s="72"/>
-      <c r="F57" s="127"/>
-      <c r="G57" s="127"/>
-      <c r="H57" s="127"/>
-      <c r="I57" s="127"/>
-      <c r="J57" s="127"/>
-      <c r="K57" s="127"/>
-      <c r="L57" s="127"/>
-      <c r="M57" s="127"/>
-      <c r="N57" s="127"/>
-      <c r="O57" s="127"/>
-      <c r="P57" s="127"/>
-      <c r="Q57" s="127"/>
-      <c r="R57" s="127"/>
-      <c r="S57" s="127"/>
-      <c r="T57" s="127"/>
-      <c r="U57" s="127"/>
+      <c r="F57" s="128"/>
+      <c r="G57" s="128"/>
+      <c r="H57" s="128"/>
+      <c r="I57" s="128"/>
+      <c r="J57" s="128"/>
+      <c r="K57" s="128"/>
+      <c r="L57" s="128"/>
+      <c r="M57" s="128"/>
+      <c r="N57" s="128"/>
+      <c r="O57" s="128"/>
+      <c r="P57" s="128"/>
+      <c r="Q57" s="128"/>
+      <c r="R57" s="128"/>
+      <c r="S57" s="128"/>
+      <c r="T57" s="128"/>
+      <c r="U57" s="128"/>
     </row>
     <row r="58" ht="8.1" customHeight="1" s="90" customFormat="1">
       <c r="C58" s="4"/>
@@ -8098,22 +8070,22 @@
         <v>49</v>
       </c>
       <c r="D59" s="54"/>
-      <c r="F59" s="119"/>
-      <c r="G59" s="119"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="119"/>
-      <c r="J59" s="119"/>
-      <c r="K59" s="119"/>
-      <c r="L59" s="119"/>
-      <c r="M59" s="119"/>
-      <c r="N59" s="119"/>
-      <c r="O59" s="119"/>
-      <c r="P59" s="119"/>
-      <c r="Q59" s="119"/>
-      <c r="R59" s="119"/>
-      <c r="S59" s="119"/>
-      <c r="T59" s="119"/>
-      <c r="U59" s="119"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="120"/>
+      <c r="K59" s="120"/>
+      <c r="L59" s="120"/>
+      <c r="M59" s="120"/>
+      <c r="N59" s="120"/>
+      <c r="O59" s="120"/>
+      <c r="P59" s="120"/>
+      <c r="Q59" s="120"/>
+      <c r="R59" s="120"/>
+      <c r="S59" s="120"/>
+      <c r="T59" s="120"/>
+      <c r="U59" s="120"/>
       <c r="V59" s="90"/>
     </row>
     <row r="60" ht="8.1" customHeight="1" s="90" customFormat="1">
@@ -8141,27 +8113,35 @@
         <v>51</v>
       </c>
       <c r="D61" s="54"/>
-      <c r="F61" s="118" t="s">
+      <c r="F61" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="G61" s="118"/>
-      <c r="H61" s="118"/>
-      <c r="I61" s="118"/>
-      <c r="J61" s="118"/>
-      <c r="K61" s="118"/>
-      <c r="L61" s="118"/>
-      <c r="M61" s="118"/>
-      <c r="N61" s="118"/>
-      <c r="O61" s="118"/>
-      <c r="P61" s="118"/>
-      <c r="Q61" s="118"/>
-      <c r="R61" s="118"/>
-      <c r="S61" s="118"/>
-      <c r="T61" s="118"/>
-      <c r="U61" s="118"/>
+      <c r="G61" s="119"/>
+      <c r="H61" s="119"/>
+      <c r="I61" s="119"/>
+      <c r="J61" s="119"/>
+      <c r="K61" s="119"/>
+      <c r="L61" s="119"/>
+      <c r="M61" s="119"/>
+      <c r="N61" s="119"/>
+      <c r="O61" s="119"/>
+      <c r="P61" s="119"/>
+      <c r="Q61" s="119"/>
+      <c r="R61" s="119"/>
+      <c r="S61" s="119"/>
+      <c r="T61" s="119"/>
+      <c r="U61" s="119"/>
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="F61:U61"/>
+    <mergeCell ref="F53:U53"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="O7:U7"/>
+    <mergeCell ref="F55:U55"/>
+    <mergeCell ref="F57:U57"/>
+    <mergeCell ref="F59:U59"/>
+    <mergeCell ref="O15:U15"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="E5:G5"/>
@@ -8170,14 +8150,6 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="F61:U61"/>
-    <mergeCell ref="F53:U53"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="O7:U7"/>
-    <mergeCell ref="F55:U55"/>
-    <mergeCell ref="F57:U57"/>
-    <mergeCell ref="F59:U59"/>
-    <mergeCell ref="O15:U15"/>
     <mergeCell ref="I31:N31"/>
     <mergeCell ref="O31:U31"/>
     <mergeCell ref="H39:N39"/>
@@ -8208,6 +8180,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000192CE90DA120240A67EE82BE1FBFF43" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623d129459d6fae29ac2c5d491c3782f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0e2beb7e-37df-4602-aab8-4f6673c75e9a" xmlns:ns4="eaec1813-26bf-4c98-9021-907af21e1945" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfd2e6b22ac1ad737273b5b960116aad" ns3:_="" ns4:_="">
     <xsd:import namespace="0e2beb7e-37df-4602-aab8-4f6673c75e9a"/>
@@ -8430,22 +8417,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B10A51B4-5AFB-478C-ADEC-6221B89FD95A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0e2beb7e-37df-4602-aab8-4f6673c75e9a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="eaec1813-26bf-4c98-9021-907af21e1945"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB68F43B-E0EF-42BE-BAC3-92E4E861A7D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53520415-44BC-4FFA-B7D1-C1B985B55107}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8462,29 +8459,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB68F43B-E0EF-42BE-BAC3-92E4E861A7D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B10A51B4-5AFB-478C-ADEC-6221B89FD95A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0e2beb7e-37df-4602-aab8-4f6673c75e9a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="eaec1813-26bf-4c98-9021-907af21e1945"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>